--- a/Rokomari.xlsx
+++ b/Rokomari.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="122">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -455,6 +455,9 @@
   </si>
   <si>
     <t>The user not able to use email address.</t>
+  </si>
+  <si>
+    <t>TC-7</t>
   </si>
 </sst>
 </file>
@@ -1397,7 +1400,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="317">
+  <cellXfs count="320">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1960,14 +1963,11 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1995,6 +1995,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="16" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2049,10 +2058,40 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2085,6 +2124,21 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2106,11 +2160,41 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2164,78 +2248,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2422,7 +2434,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2662,8 +2674,8 @@
   <dimension ref="A1:AC1003"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
+      <pane ySplit="10" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A45" sqref="A45:A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -2685,16 +2697,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="192" customFormat="1" ht="15" customHeight="1">
-      <c r="F1" s="224" t="s">
+      <c r="F1" s="226" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="225"/>
+      <c r="G1" s="227"/>
     </row>
     <row r="2" spans="1:29" s="192" customFormat="1" ht="15" customHeight="1">
-      <c r="D2" s="222" t="s">
+      <c r="D2" s="224" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="223"/>
+      <c r="E2" s="225"/>
     </row>
     <row r="3" spans="1:29" s="192" customFormat="1" ht="15" customHeight="1">
       <c r="D3" s="199" t="s">
@@ -2720,10 +2732,10 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="245" t="s">
+      <c r="L4" s="257" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="246"/>
+      <c r="M4" s="258"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
@@ -2988,36 +3000,36 @@
       <c r="AC10" s="205"/>
     </row>
     <row r="11" spans="1:29" ht="30" customHeight="1">
-      <c r="A11" s="215" t="s">
+      <c r="A11" s="214" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="218" t="s">
+      <c r="B11" s="217" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="220" t="s">
+      <c r="C11" s="219" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="213" t="s">
+      <c r="D11" s="212" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="210" t="s">
+      <c r="E11" s="243" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="252" t="s">
+      <c r="F11" s="264" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="210" t="s">
+      <c r="G11" s="243" t="s">
         <v>86</v>
       </c>
-      <c r="H11" s="210" t="s">
+      <c r="H11" s="243" t="s">
         <v>83</v>
       </c>
-      <c r="I11" s="238" t="s">
+      <c r="I11" s="240" t="s">
         <v>84</v>
       </c>
-      <c r="J11" s="232"/>
-      <c r="K11" s="235"/>
-      <c r="L11" s="226" t="s">
+      <c r="J11" s="234"/>
+      <c r="K11" s="237"/>
+      <c r="L11" s="228" t="s">
         <v>85</v>
       </c>
       <c r="M11" s="198"/>
@@ -3039,18 +3051,18 @@
       <c r="AC11" s="4"/>
     </row>
     <row r="12" spans="1:29" ht="14.25" customHeight="1">
-      <c r="A12" s="216"/>
-      <c r="B12" s="219"/>
-      <c r="C12" s="221"/>
-      <c r="D12" s="214"/>
-      <c r="E12" s="211"/>
-      <c r="F12" s="253"/>
-      <c r="G12" s="241"/>
-      <c r="H12" s="211"/>
-      <c r="I12" s="239"/>
-      <c r="J12" s="233"/>
-      <c r="K12" s="236"/>
-      <c r="L12" s="227"/>
+      <c r="A12" s="215"/>
+      <c r="B12" s="218"/>
+      <c r="C12" s="220"/>
+      <c r="D12" s="213"/>
+      <c r="E12" s="244"/>
+      <c r="F12" s="265"/>
+      <c r="G12" s="246"/>
+      <c r="H12" s="244"/>
+      <c r="I12" s="241"/>
+      <c r="J12" s="235"/>
+      <c r="K12" s="238"/>
+      <c r="L12" s="229"/>
       <c r="M12" s="197"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -3070,18 +3082,18 @@
       <c r="AC12" s="4"/>
     </row>
     <row r="13" spans="1:29" ht="14.25" customHeight="1">
-      <c r="A13" s="216"/>
-      <c r="B13" s="219"/>
-      <c r="C13" s="221"/>
-      <c r="D13" s="214"/>
-      <c r="E13" s="211"/>
-      <c r="F13" s="253"/>
-      <c r="G13" s="241"/>
-      <c r="H13" s="211"/>
-      <c r="I13" s="239"/>
-      <c r="J13" s="233"/>
-      <c r="K13" s="236"/>
-      <c r="L13" s="227"/>
+      <c r="A13" s="215"/>
+      <c r="B13" s="218"/>
+      <c r="C13" s="220"/>
+      <c r="D13" s="213"/>
+      <c r="E13" s="244"/>
+      <c r="F13" s="265"/>
+      <c r="G13" s="246"/>
+      <c r="H13" s="244"/>
+      <c r="I13" s="241"/>
+      <c r="J13" s="235"/>
+      <c r="K13" s="238"/>
+      <c r="L13" s="229"/>
       <c r="M13" s="190"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -3101,18 +3113,18 @@
       <c r="AC13" s="4"/>
     </row>
     <row r="14" spans="1:29" ht="25.5" customHeight="1">
-      <c r="A14" s="216"/>
-      <c r="B14" s="219"/>
-      <c r="C14" s="221"/>
-      <c r="D14" s="214"/>
-      <c r="E14" s="211"/>
-      <c r="F14" s="253"/>
-      <c r="G14" s="241"/>
-      <c r="H14" s="211"/>
-      <c r="I14" s="239"/>
-      <c r="J14" s="233"/>
-      <c r="K14" s="236"/>
-      <c r="L14" s="227"/>
+      <c r="A14" s="215"/>
+      <c r="B14" s="218"/>
+      <c r="C14" s="220"/>
+      <c r="D14" s="213"/>
+      <c r="E14" s="244"/>
+      <c r="F14" s="265"/>
+      <c r="G14" s="246"/>
+      <c r="H14" s="244"/>
+      <c r="I14" s="241"/>
+      <c r="J14" s="235"/>
+      <c r="K14" s="238"/>
+      <c r="L14" s="229"/>
       <c r="M14" s="190"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -3132,18 +3144,18 @@
       <c r="AC14" s="4"/>
     </row>
     <row r="15" spans="1:29" ht="14.25" customHeight="1">
-      <c r="A15" s="216"/>
-      <c r="B15" s="219"/>
-      <c r="C15" s="221"/>
-      <c r="D15" s="214"/>
-      <c r="E15" s="211"/>
-      <c r="F15" s="253"/>
-      <c r="G15" s="241"/>
-      <c r="H15" s="211"/>
-      <c r="I15" s="239"/>
-      <c r="J15" s="233"/>
-      <c r="K15" s="236"/>
-      <c r="L15" s="227"/>
+      <c r="A15" s="215"/>
+      <c r="B15" s="218"/>
+      <c r="C15" s="220"/>
+      <c r="D15" s="213"/>
+      <c r="E15" s="244"/>
+      <c r="F15" s="265"/>
+      <c r="G15" s="246"/>
+      <c r="H15" s="244"/>
+      <c r="I15" s="241"/>
+      <c r="J15" s="235"/>
+      <c r="K15" s="238"/>
+      <c r="L15" s="229"/>
       <c r="M15" s="190"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -3163,18 +3175,18 @@
       <c r="AC15" s="4"/>
     </row>
     <row r="16" spans="1:29" s="189" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A16" s="216"/>
-      <c r="B16" s="219"/>
-      <c r="C16" s="221"/>
-      <c r="D16" s="214"/>
-      <c r="E16" s="211"/>
-      <c r="F16" s="253"/>
-      <c r="G16" s="241"/>
-      <c r="H16" s="211"/>
-      <c r="I16" s="239"/>
-      <c r="J16" s="233"/>
-      <c r="K16" s="236"/>
-      <c r="L16" s="227"/>
+      <c r="A16" s="215"/>
+      <c r="B16" s="218"/>
+      <c r="C16" s="220"/>
+      <c r="D16" s="213"/>
+      <c r="E16" s="244"/>
+      <c r="F16" s="265"/>
+      <c r="G16" s="246"/>
+      <c r="H16" s="244"/>
+      <c r="I16" s="241"/>
+      <c r="J16" s="235"/>
+      <c r="K16" s="238"/>
+      <c r="L16" s="229"/>
       <c r="M16" s="190"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
@@ -3194,18 +3206,18 @@
       <c r="AC16" s="4"/>
     </row>
     <row r="17" spans="1:29" ht="14.25" customHeight="1">
-      <c r="A17" s="217"/>
-      <c r="B17" s="219"/>
-      <c r="C17" s="221"/>
-      <c r="D17" s="214"/>
-      <c r="E17" s="212"/>
-      <c r="F17" s="254"/>
-      <c r="G17" s="242"/>
-      <c r="H17" s="212"/>
-      <c r="I17" s="240"/>
-      <c r="J17" s="234"/>
-      <c r="K17" s="237"/>
-      <c r="L17" s="228"/>
+      <c r="A17" s="216"/>
+      <c r="B17" s="218"/>
+      <c r="C17" s="220"/>
+      <c r="D17" s="213"/>
+      <c r="E17" s="245"/>
+      <c r="F17" s="266"/>
+      <c r="G17" s="247"/>
+      <c r="H17" s="245"/>
+      <c r="I17" s="242"/>
+      <c r="J17" s="236"/>
+      <c r="K17" s="239"/>
+      <c r="L17" s="230"/>
       <c r="M17" s="191"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -3225,12 +3237,12 @@
       <c r="AC17" s="4"/>
     </row>
     <row r="18" spans="1:29" ht="128.25">
-      <c r="A18" s="293" t="s">
+      <c r="A18" s="210" t="s">
         <v>88</v>
       </c>
       <c r="B18" s="194"/>
       <c r="C18" s="134"/>
-      <c r="D18" s="300" t="s">
+      <c r="D18" s="284" t="s">
         <v>89</v>
       </c>
       <c r="E18" s="195" t="s">
@@ -3239,7 +3251,7 @@
       <c r="F18" s="209" t="s">
         <v>91</v>
       </c>
-      <c r="G18" s="308" t="s">
+      <c r="G18" s="211" t="s">
         <v>92</v>
       </c>
       <c r="H18" s="207" t="s">
@@ -3272,30 +3284,30 @@
       <c r="AC18" s="4"/>
     </row>
     <row r="19" spans="1:29" ht="14.25" customHeight="1">
-      <c r="A19" s="226" t="s">
+      <c r="A19" s="228" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="300"/>
-      <c r="C19" s="227"/>
-      <c r="D19" s="300"/>
-      <c r="E19" s="241" t="s">
+      <c r="B19" s="284"/>
+      <c r="C19" s="229"/>
+      <c r="D19" s="284"/>
+      <c r="E19" s="246" t="s">
         <v>94</v>
       </c>
-      <c r="F19" s="296" t="s">
+      <c r="F19" s="288" t="s">
         <v>95</v>
       </c>
-      <c r="G19" s="309" t="s">
+      <c r="G19" s="279" t="s">
         <v>96</v>
       </c>
-      <c r="H19" s="241" t="s">
+      <c r="H19" s="246" t="s">
         <v>98</v>
       </c>
-      <c r="I19" s="241" t="s">
+      <c r="I19" s="246" t="s">
         <v>100</v>
       </c>
-      <c r="J19" s="298"/>
-      <c r="K19" s="241"/>
-      <c r="L19" s="227" t="s">
+      <c r="J19" s="267"/>
+      <c r="K19" s="246"/>
+      <c r="L19" s="229" t="s">
         <v>99</v>
       </c>
       <c r="M19" s="29"/>
@@ -3317,18 +3329,18 @@
       <c r="AC19" s="4"/>
     </row>
     <row r="20" spans="1:29" ht="14.25" customHeight="1">
-      <c r="A20" s="227"/>
-      <c r="B20" s="300"/>
-      <c r="C20" s="227"/>
-      <c r="D20" s="300"/>
-      <c r="E20" s="241"/>
-      <c r="F20" s="296"/>
-      <c r="G20" s="310"/>
-      <c r="H20" s="241"/>
-      <c r="I20" s="241"/>
-      <c r="J20" s="298"/>
-      <c r="K20" s="241"/>
-      <c r="L20" s="227"/>
+      <c r="A20" s="229"/>
+      <c r="B20" s="284"/>
+      <c r="C20" s="229"/>
+      <c r="D20" s="284"/>
+      <c r="E20" s="246"/>
+      <c r="F20" s="288"/>
+      <c r="G20" s="280"/>
+      <c r="H20" s="246"/>
+      <c r="I20" s="246"/>
+      <c r="J20" s="267"/>
+      <c r="K20" s="246"/>
+      <c r="L20" s="229"/>
       <c r="M20" s="30"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -3348,18 +3360,18 @@
       <c r="AC20" s="4"/>
     </row>
     <row r="21" spans="1:29" ht="14.25" customHeight="1">
-      <c r="A21" s="227"/>
-      <c r="B21" s="300"/>
-      <c r="C21" s="227"/>
-      <c r="D21" s="300"/>
-      <c r="E21" s="241"/>
-      <c r="F21" s="296"/>
-      <c r="G21" s="310"/>
-      <c r="H21" s="241"/>
-      <c r="I21" s="241"/>
-      <c r="J21" s="298"/>
-      <c r="K21" s="241"/>
-      <c r="L21" s="227"/>
+      <c r="A21" s="229"/>
+      <c r="B21" s="284"/>
+      <c r="C21" s="229"/>
+      <c r="D21" s="284"/>
+      <c r="E21" s="246"/>
+      <c r="F21" s="288"/>
+      <c r="G21" s="280"/>
+      <c r="H21" s="246"/>
+      <c r="I21" s="246"/>
+      <c r="J21" s="267"/>
+      <c r="K21" s="246"/>
+      <c r="L21" s="229"/>
       <c r="M21" s="30"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
@@ -3379,18 +3391,18 @@
       <c r="AC21" s="4"/>
     </row>
     <row r="22" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A22" s="227"/>
-      <c r="B22" s="300"/>
-      <c r="C22" s="227"/>
-      <c r="D22" s="300"/>
-      <c r="E22" s="241"/>
-      <c r="F22" s="296"/>
-      <c r="G22" s="310"/>
-      <c r="H22" s="241"/>
-      <c r="I22" s="241"/>
-      <c r="J22" s="298"/>
-      <c r="K22" s="241"/>
-      <c r="L22" s="227"/>
+      <c r="A22" s="229"/>
+      <c r="B22" s="284"/>
+      <c r="C22" s="229"/>
+      <c r="D22" s="284"/>
+      <c r="E22" s="246"/>
+      <c r="F22" s="288"/>
+      <c r="G22" s="280"/>
+      <c r="H22" s="246"/>
+      <c r="I22" s="246"/>
+      <c r="J22" s="267"/>
+      <c r="K22" s="246"/>
+      <c r="L22" s="229"/>
       <c r="M22" s="32"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
@@ -3410,18 +3422,18 @@
       <c r="AC22" s="4"/>
     </row>
     <row r="23" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A23" s="227"/>
-      <c r="B23" s="300"/>
-      <c r="C23" s="227"/>
-      <c r="D23" s="300"/>
-      <c r="E23" s="241"/>
-      <c r="F23" s="296"/>
-      <c r="G23" s="310"/>
-      <c r="H23" s="241"/>
-      <c r="I23" s="241"/>
-      <c r="J23" s="298"/>
-      <c r="K23" s="241"/>
-      <c r="L23" s="227"/>
+      <c r="A23" s="229"/>
+      <c r="B23" s="284"/>
+      <c r="C23" s="229"/>
+      <c r="D23" s="284"/>
+      <c r="E23" s="246"/>
+      <c r="F23" s="288"/>
+      <c r="G23" s="280"/>
+      <c r="H23" s="246"/>
+      <c r="I23" s="246"/>
+      <c r="J23" s="267"/>
+      <c r="K23" s="246"/>
+      <c r="L23" s="229"/>
       <c r="M23" s="25"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
@@ -3441,18 +3453,18 @@
       <c r="AC23" s="4"/>
     </row>
     <row r="24" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A24" s="228"/>
-      <c r="B24" s="300"/>
-      <c r="C24" s="227"/>
-      <c r="D24" s="300"/>
-      <c r="E24" s="242"/>
-      <c r="F24" s="297"/>
-      <c r="G24" s="311"/>
-      <c r="H24" s="242"/>
-      <c r="I24" s="241"/>
-      <c r="J24" s="299"/>
-      <c r="K24" s="242"/>
-      <c r="L24" s="228"/>
+      <c r="A24" s="230"/>
+      <c r="B24" s="284"/>
+      <c r="C24" s="229"/>
+      <c r="D24" s="284"/>
+      <c r="E24" s="247"/>
+      <c r="F24" s="289"/>
+      <c r="G24" s="281"/>
+      <c r="H24" s="247"/>
+      <c r="I24" s="246"/>
+      <c r="J24" s="268"/>
+      <c r="K24" s="247"/>
+      <c r="L24" s="230"/>
       <c r="M24" s="25"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -3472,30 +3484,30 @@
       <c r="AC24" s="4"/>
     </row>
     <row r="25" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A25" s="215" t="s">
+      <c r="A25" s="214" t="s">
         <v>102</v>
       </c>
-      <c r="B25" s="305"/>
-      <c r="C25" s="305"/>
-      <c r="D25" s="300"/>
-      <c r="E25" s="301" t="s">
+      <c r="B25" s="287"/>
+      <c r="C25" s="287"/>
+      <c r="D25" s="284"/>
+      <c r="E25" s="251" t="s">
         <v>103</v>
       </c>
-      <c r="F25" s="301" t="s">
+      <c r="F25" s="251" t="s">
         <v>104</v>
       </c>
-      <c r="G25" s="312" t="s">
+      <c r="G25" s="269" t="s">
         <v>105</v>
       </c>
-      <c r="H25" s="312" t="s">
+      <c r="H25" s="269" t="s">
         <v>106</v>
       </c>
-      <c r="I25" s="241" t="s">
+      <c r="I25" s="246" t="s">
         <v>107</v>
       </c>
-      <c r="J25" s="304"/>
-      <c r="K25" s="304"/>
-      <c r="L25" s="226" t="s">
+      <c r="J25" s="248"/>
+      <c r="K25" s="248"/>
+      <c r="L25" s="228" t="s">
         <v>99</v>
       </c>
       <c r="M25" s="25"/>
@@ -3517,18 +3529,18 @@
       <c r="AC25" s="4"/>
     </row>
     <row r="26" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A26" s="216"/>
-      <c r="B26" s="305"/>
-      <c r="C26" s="305"/>
-      <c r="D26" s="300"/>
-      <c r="E26" s="302"/>
-      <c r="F26" s="302"/>
-      <c r="G26" s="313"/>
-      <c r="H26" s="315"/>
-      <c r="I26" s="241"/>
-      <c r="J26" s="294"/>
-      <c r="K26" s="294"/>
-      <c r="L26" s="227"/>
+      <c r="A26" s="215"/>
+      <c r="B26" s="287"/>
+      <c r="C26" s="287"/>
+      <c r="D26" s="284"/>
+      <c r="E26" s="252"/>
+      <c r="F26" s="252"/>
+      <c r="G26" s="285"/>
+      <c r="H26" s="270"/>
+      <c r="I26" s="246"/>
+      <c r="J26" s="249"/>
+      <c r="K26" s="249"/>
+      <c r="L26" s="229"/>
       <c r="M26" s="25"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
@@ -3548,18 +3560,18 @@
       <c r="AC26" s="4"/>
     </row>
     <row r="27" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A27" s="216"/>
-      <c r="B27" s="305"/>
-      <c r="C27" s="305"/>
-      <c r="D27" s="300"/>
-      <c r="E27" s="302"/>
-      <c r="F27" s="302"/>
-      <c r="G27" s="313"/>
-      <c r="H27" s="315"/>
-      <c r="I27" s="241"/>
-      <c r="J27" s="294"/>
-      <c r="K27" s="294"/>
-      <c r="L27" s="227"/>
+      <c r="A27" s="215"/>
+      <c r="B27" s="287"/>
+      <c r="C27" s="287"/>
+      <c r="D27" s="284"/>
+      <c r="E27" s="252"/>
+      <c r="F27" s="252"/>
+      <c r="G27" s="285"/>
+      <c r="H27" s="270"/>
+      <c r="I27" s="246"/>
+      <c r="J27" s="249"/>
+      <c r="K27" s="249"/>
+      <c r="L27" s="229"/>
       <c r="M27" s="25"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
@@ -3579,18 +3591,18 @@
       <c r="AC27" s="4"/>
     </row>
     <row r="28" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A28" s="216"/>
-      <c r="B28" s="305"/>
-      <c r="C28" s="305"/>
-      <c r="D28" s="300"/>
-      <c r="E28" s="302"/>
-      <c r="F28" s="302"/>
-      <c r="G28" s="313"/>
-      <c r="H28" s="315"/>
-      <c r="I28" s="241"/>
-      <c r="J28" s="294"/>
-      <c r="K28" s="294"/>
-      <c r="L28" s="227"/>
+      <c r="A28" s="215"/>
+      <c r="B28" s="287"/>
+      <c r="C28" s="287"/>
+      <c r="D28" s="284"/>
+      <c r="E28" s="252"/>
+      <c r="F28" s="252"/>
+      <c r="G28" s="285"/>
+      <c r="H28" s="270"/>
+      <c r="I28" s="246"/>
+      <c r="J28" s="249"/>
+      <c r="K28" s="249"/>
+      <c r="L28" s="229"/>
       <c r="M28" s="25"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
@@ -3610,18 +3622,18 @@
       <c r="AC28" s="4"/>
     </row>
     <row r="29" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A29" s="216"/>
-      <c r="B29" s="305"/>
-      <c r="C29" s="305"/>
-      <c r="D29" s="300"/>
-      <c r="E29" s="302"/>
-      <c r="F29" s="302"/>
-      <c r="G29" s="313"/>
-      <c r="H29" s="315"/>
-      <c r="I29" s="241"/>
-      <c r="J29" s="294"/>
-      <c r="K29" s="294"/>
-      <c r="L29" s="227"/>
+      <c r="A29" s="215"/>
+      <c r="B29" s="287"/>
+      <c r="C29" s="287"/>
+      <c r="D29" s="284"/>
+      <c r="E29" s="252"/>
+      <c r="F29" s="252"/>
+      <c r="G29" s="285"/>
+      <c r="H29" s="270"/>
+      <c r="I29" s="246"/>
+      <c r="J29" s="249"/>
+      <c r="K29" s="249"/>
+      <c r="L29" s="229"/>
       <c r="M29" s="25"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
@@ -3641,18 +3653,18 @@
       <c r="AC29" s="4"/>
     </row>
     <row r="30" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A30" s="216"/>
-      <c r="B30" s="305"/>
-      <c r="C30" s="305"/>
-      <c r="D30" s="300"/>
-      <c r="E30" s="302"/>
-      <c r="F30" s="302"/>
-      <c r="G30" s="313"/>
-      <c r="H30" s="315"/>
-      <c r="I30" s="241"/>
-      <c r="J30" s="294"/>
-      <c r="K30" s="294"/>
-      <c r="L30" s="227"/>
+      <c r="A30" s="215"/>
+      <c r="B30" s="287"/>
+      <c r="C30" s="287"/>
+      <c r="D30" s="284"/>
+      <c r="E30" s="252"/>
+      <c r="F30" s="252"/>
+      <c r="G30" s="285"/>
+      <c r="H30" s="270"/>
+      <c r="I30" s="246"/>
+      <c r="J30" s="249"/>
+      <c r="K30" s="249"/>
+      <c r="L30" s="229"/>
       <c r="M30" s="25"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
@@ -3672,18 +3684,18 @@
       <c r="AC30" s="4"/>
     </row>
     <row r="31" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A31" s="217"/>
-      <c r="B31" s="305"/>
-      <c r="C31" s="305"/>
-      <c r="D31" s="300"/>
-      <c r="E31" s="303"/>
-      <c r="F31" s="303"/>
-      <c r="G31" s="314"/>
-      <c r="H31" s="316"/>
-      <c r="I31" s="242"/>
-      <c r="J31" s="295"/>
-      <c r="K31" s="295"/>
-      <c r="L31" s="228"/>
+      <c r="A31" s="216"/>
+      <c r="B31" s="287"/>
+      <c r="C31" s="287"/>
+      <c r="D31" s="284"/>
+      <c r="E31" s="253"/>
+      <c r="F31" s="253"/>
+      <c r="G31" s="286"/>
+      <c r="H31" s="271"/>
+      <c r="I31" s="247"/>
+      <c r="J31" s="250"/>
+      <c r="K31" s="250"/>
+      <c r="L31" s="230"/>
       <c r="M31" s="25"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
@@ -3703,32 +3715,32 @@
       <c r="AC31" s="4"/>
     </row>
     <row r="32" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A32" s="215" t="s">
+      <c r="A32" s="214" t="s">
         <v>108</v>
       </c>
-      <c r="B32" s="305"/>
-      <c r="C32" s="305"/>
-      <c r="D32" s="306" t="s">
+      <c r="B32" s="287"/>
+      <c r="C32" s="287"/>
+      <c r="D32" s="290" t="s">
         <v>109</v>
       </c>
-      <c r="E32" s="301" t="s">
+      <c r="E32" s="251" t="s">
         <v>110</v>
       </c>
-      <c r="F32" s="301" t="s">
+      <c r="F32" s="251" t="s">
         <v>111</v>
       </c>
-      <c r="G32" s="312" t="s">
+      <c r="G32" s="269" t="s">
         <v>112</v>
       </c>
-      <c r="H32" s="301" t="s">
+      <c r="H32" s="251" t="s">
         <v>113</v>
       </c>
-      <c r="I32" s="307" t="s">
+      <c r="I32" s="254" t="s">
         <v>114</v>
       </c>
-      <c r="J32" s="304"/>
-      <c r="K32" s="304"/>
-      <c r="L32" s="215" t="s">
+      <c r="J32" s="248"/>
+      <c r="K32" s="248"/>
+      <c r="L32" s="214" t="s">
         <v>85</v>
       </c>
       <c r="M32" s="25"/>
@@ -3750,18 +3762,18 @@
       <c r="AC32" s="4"/>
     </row>
     <row r="33" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A33" s="216"/>
-      <c r="B33" s="305"/>
-      <c r="C33" s="305"/>
-      <c r="D33" s="306"/>
-      <c r="E33" s="302"/>
-      <c r="F33" s="302"/>
-      <c r="G33" s="302"/>
-      <c r="H33" s="302"/>
-      <c r="I33" s="241"/>
-      <c r="J33" s="294"/>
-      <c r="K33" s="294"/>
-      <c r="L33" s="216"/>
+      <c r="A33" s="215"/>
+      <c r="B33" s="287"/>
+      <c r="C33" s="287"/>
+      <c r="D33" s="290"/>
+      <c r="E33" s="252"/>
+      <c r="F33" s="252"/>
+      <c r="G33" s="252"/>
+      <c r="H33" s="252"/>
+      <c r="I33" s="246"/>
+      <c r="J33" s="249"/>
+      <c r="K33" s="249"/>
+      <c r="L33" s="215"/>
       <c r="M33" s="25"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
@@ -3781,18 +3793,18 @@
       <c r="AC33" s="4"/>
     </row>
     <row r="34" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A34" s="216"/>
-      <c r="B34" s="305"/>
-      <c r="C34" s="305"/>
-      <c r="D34" s="306"/>
-      <c r="E34" s="302"/>
-      <c r="F34" s="302"/>
-      <c r="G34" s="302"/>
-      <c r="H34" s="302"/>
-      <c r="I34" s="241"/>
-      <c r="J34" s="294"/>
-      <c r="K34" s="294"/>
-      <c r="L34" s="216"/>
+      <c r="A34" s="215"/>
+      <c r="B34" s="287"/>
+      <c r="C34" s="287"/>
+      <c r="D34" s="290"/>
+      <c r="E34" s="252"/>
+      <c r="F34" s="252"/>
+      <c r="G34" s="252"/>
+      <c r="H34" s="252"/>
+      <c r="I34" s="246"/>
+      <c r="J34" s="249"/>
+      <c r="K34" s="249"/>
+      <c r="L34" s="215"/>
       <c r="M34" s="21"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
@@ -3812,18 +3824,18 @@
       <c r="AC34" s="4"/>
     </row>
     <row r="35" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A35" s="216"/>
-      <c r="B35" s="305"/>
-      <c r="C35" s="305"/>
-      <c r="D35" s="306"/>
-      <c r="E35" s="302"/>
-      <c r="F35" s="302"/>
-      <c r="G35" s="302"/>
-      <c r="H35" s="302"/>
-      <c r="I35" s="241"/>
-      <c r="J35" s="294"/>
-      <c r="K35" s="294"/>
-      <c r="L35" s="216"/>
+      <c r="A35" s="215"/>
+      <c r="B35" s="287"/>
+      <c r="C35" s="287"/>
+      <c r="D35" s="290"/>
+      <c r="E35" s="252"/>
+      <c r="F35" s="252"/>
+      <c r="G35" s="252"/>
+      <c r="H35" s="252"/>
+      <c r="I35" s="246"/>
+      <c r="J35" s="249"/>
+      <c r="K35" s="249"/>
+      <c r="L35" s="215"/>
       <c r="M35" s="25"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
@@ -3843,18 +3855,18 @@
       <c r="AC35" s="4"/>
     </row>
     <row r="36" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A36" s="216"/>
-      <c r="B36" s="305"/>
-      <c r="C36" s="305"/>
-      <c r="D36" s="306"/>
-      <c r="E36" s="302"/>
-      <c r="F36" s="302"/>
-      <c r="G36" s="302"/>
-      <c r="H36" s="302"/>
-      <c r="I36" s="241"/>
-      <c r="J36" s="294"/>
-      <c r="K36" s="294"/>
-      <c r="L36" s="216"/>
+      <c r="A36" s="215"/>
+      <c r="B36" s="287"/>
+      <c r="C36" s="287"/>
+      <c r="D36" s="290"/>
+      <c r="E36" s="252"/>
+      <c r="F36" s="252"/>
+      <c r="G36" s="252"/>
+      <c r="H36" s="252"/>
+      <c r="I36" s="246"/>
+      <c r="J36" s="249"/>
+      <c r="K36" s="249"/>
+      <c r="L36" s="215"/>
       <c r="M36" s="25"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
@@ -3874,18 +3886,18 @@
       <c r="AC36" s="4"/>
     </row>
     <row r="37" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A37" s="216"/>
-      <c r="B37" s="305"/>
-      <c r="C37" s="305"/>
-      <c r="D37" s="306"/>
-      <c r="E37" s="302"/>
-      <c r="F37" s="302"/>
-      <c r="G37" s="302"/>
-      <c r="H37" s="302"/>
-      <c r="I37" s="241"/>
-      <c r="J37" s="294"/>
-      <c r="K37" s="294"/>
-      <c r="L37" s="216"/>
+      <c r="A37" s="215"/>
+      <c r="B37" s="287"/>
+      <c r="C37" s="287"/>
+      <c r="D37" s="290"/>
+      <c r="E37" s="252"/>
+      <c r="F37" s="252"/>
+      <c r="G37" s="252"/>
+      <c r="H37" s="252"/>
+      <c r="I37" s="246"/>
+      <c r="J37" s="249"/>
+      <c r="K37" s="249"/>
+      <c r="L37" s="215"/>
       <c r="M37" s="25"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
@@ -3905,18 +3917,18 @@
       <c r="AC37" s="4"/>
     </row>
     <row r="38" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A38" s="217"/>
-      <c r="B38" s="305"/>
-      <c r="C38" s="305"/>
-      <c r="D38" s="306"/>
-      <c r="E38" s="303"/>
-      <c r="F38" s="303"/>
-      <c r="G38" s="303"/>
-      <c r="H38" s="303"/>
-      <c r="I38" s="242"/>
-      <c r="J38" s="295"/>
-      <c r="K38" s="295"/>
-      <c r="L38" s="217"/>
+      <c r="A38" s="216"/>
+      <c r="B38" s="287"/>
+      <c r="C38" s="287"/>
+      <c r="D38" s="290"/>
+      <c r="E38" s="253"/>
+      <c r="F38" s="253"/>
+      <c r="G38" s="253"/>
+      <c r="H38" s="253"/>
+      <c r="I38" s="247"/>
+      <c r="J38" s="250"/>
+      <c r="K38" s="250"/>
+      <c r="L38" s="216"/>
       <c r="M38" s="25"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
@@ -3936,30 +3948,30 @@
       <c r="AC38" s="4"/>
     </row>
     <row r="39" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A39" s="213" t="s">
+      <c r="A39" s="212" t="s">
         <v>115</v>
       </c>
-      <c r="B39" s="305"/>
-      <c r="C39" s="305"/>
-      <c r="D39" s="306"/>
-      <c r="E39" s="210" t="s">
+      <c r="B39" s="287"/>
+      <c r="C39" s="287"/>
+      <c r="D39" s="290"/>
+      <c r="E39" s="243" t="s">
         <v>116</v>
       </c>
-      <c r="F39" s="210" t="s">
+      <c r="F39" s="243" t="s">
         <v>117</v>
       </c>
-      <c r="G39" s="210" t="s">
+      <c r="G39" s="243" t="s">
         <v>118</v>
       </c>
-      <c r="H39" s="210" t="s">
+      <c r="H39" s="243" t="s">
         <v>119</v>
       </c>
-      <c r="I39" s="210" t="s">
+      <c r="I39" s="243" t="s">
         <v>120</v>
       </c>
-      <c r="J39" s="304"/>
-      <c r="K39" s="304"/>
-      <c r="L39" s="226" t="s">
+      <c r="J39" s="248"/>
+      <c r="K39" s="248"/>
+      <c r="L39" s="228" t="s">
         <v>85</v>
       </c>
       <c r="M39" s="29"/>
@@ -3981,18 +3993,18 @@
       <c r="AC39" s="4"/>
     </row>
     <row r="40" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A40" s="216"/>
-      <c r="B40" s="305"/>
-      <c r="C40" s="305"/>
-      <c r="D40" s="306"/>
-      <c r="E40" s="241"/>
-      <c r="F40" s="241"/>
-      <c r="G40" s="241"/>
-      <c r="H40" s="241"/>
-      <c r="I40" s="241"/>
-      <c r="J40" s="294"/>
-      <c r="K40" s="294"/>
-      <c r="L40" s="227"/>
+      <c r="A40" s="215"/>
+      <c r="B40" s="287"/>
+      <c r="C40" s="287"/>
+      <c r="D40" s="290"/>
+      <c r="E40" s="246"/>
+      <c r="F40" s="246"/>
+      <c r="G40" s="246"/>
+      <c r="H40" s="246"/>
+      <c r="I40" s="246"/>
+      <c r="J40" s="249"/>
+      <c r="K40" s="249"/>
+      <c r="L40" s="229"/>
       <c r="M40" s="30"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
@@ -4012,18 +4024,18 @@
       <c r="AC40" s="4"/>
     </row>
     <row r="41" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A41" s="216"/>
-      <c r="B41" s="305"/>
-      <c r="C41" s="305"/>
-      <c r="D41" s="306"/>
-      <c r="E41" s="241"/>
-      <c r="F41" s="241"/>
-      <c r="G41" s="241"/>
-      <c r="H41" s="241"/>
-      <c r="I41" s="241"/>
-      <c r="J41" s="294"/>
-      <c r="K41" s="294"/>
-      <c r="L41" s="227"/>
+      <c r="A41" s="215"/>
+      <c r="B41" s="287"/>
+      <c r="C41" s="287"/>
+      <c r="D41" s="290"/>
+      <c r="E41" s="246"/>
+      <c r="F41" s="246"/>
+      <c r="G41" s="246"/>
+      <c r="H41" s="246"/>
+      <c r="I41" s="246"/>
+      <c r="J41" s="249"/>
+      <c r="K41" s="249"/>
+      <c r="L41" s="229"/>
       <c r="M41" s="30"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
@@ -4043,18 +4055,18 @@
       <c r="AC41" s="4"/>
     </row>
     <row r="42" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A42" s="216"/>
-      <c r="B42" s="305"/>
-      <c r="C42" s="305"/>
-      <c r="D42" s="306"/>
-      <c r="E42" s="241"/>
-      <c r="F42" s="241"/>
-      <c r="G42" s="241"/>
-      <c r="H42" s="241"/>
-      <c r="I42" s="241"/>
-      <c r="J42" s="294"/>
-      <c r="K42" s="294"/>
-      <c r="L42" s="227"/>
+      <c r="A42" s="215"/>
+      <c r="B42" s="287"/>
+      <c r="C42" s="287"/>
+      <c r="D42" s="290"/>
+      <c r="E42" s="246"/>
+      <c r="F42" s="246"/>
+      <c r="G42" s="246"/>
+      <c r="H42" s="246"/>
+      <c r="I42" s="246"/>
+      <c r="J42" s="249"/>
+      <c r="K42" s="249"/>
+      <c r="L42" s="229"/>
       <c r="M42" s="30"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
@@ -4074,18 +4086,18 @@
       <c r="AC42" s="4"/>
     </row>
     <row r="43" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A43" s="216"/>
-      <c r="B43" s="305"/>
-      <c r="C43" s="305"/>
-      <c r="D43" s="306"/>
-      <c r="E43" s="241"/>
-      <c r="F43" s="241"/>
-      <c r="G43" s="241"/>
-      <c r="H43" s="241"/>
-      <c r="I43" s="241"/>
-      <c r="J43" s="294"/>
-      <c r="K43" s="294"/>
-      <c r="L43" s="227"/>
+      <c r="A43" s="215"/>
+      <c r="B43" s="287"/>
+      <c r="C43" s="287"/>
+      <c r="D43" s="290"/>
+      <c r="E43" s="246"/>
+      <c r="F43" s="246"/>
+      <c r="G43" s="246"/>
+      <c r="H43" s="246"/>
+      <c r="I43" s="246"/>
+      <c r="J43" s="249"/>
+      <c r="K43" s="249"/>
+      <c r="L43" s="229"/>
       <c r="M43" s="30"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
@@ -4105,18 +4117,18 @@
       <c r="AC43" s="4"/>
     </row>
     <row r="44" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A44" s="217"/>
-      <c r="B44" s="305"/>
-      <c r="C44" s="305"/>
-      <c r="D44" s="306"/>
-      <c r="E44" s="241"/>
-      <c r="F44" s="241"/>
-      <c r="G44" s="242"/>
-      <c r="H44" s="242"/>
-      <c r="I44" s="242"/>
-      <c r="J44" s="295"/>
-      <c r="K44" s="295"/>
-      <c r="L44" s="228"/>
+      <c r="A44" s="216"/>
+      <c r="B44" s="287"/>
+      <c r="C44" s="287"/>
+      <c r="D44" s="290"/>
+      <c r="E44" s="246"/>
+      <c r="F44" s="246"/>
+      <c r="G44" s="247"/>
+      <c r="H44" s="247"/>
+      <c r="I44" s="247"/>
+      <c r="J44" s="250"/>
+      <c r="K44" s="250"/>
+      <c r="L44" s="230"/>
       <c r="M44" s="32"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
@@ -4136,8 +4148,8 @@
       <c r="AC44" s="4"/>
     </row>
     <row r="45" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A45" s="20">
-        <v>28</v>
+      <c r="A45" s="221" t="s">
+        <v>121</v>
       </c>
       <c r="B45" s="187"/>
       <c r="C45" s="190"/>
@@ -4169,9 +4181,7 @@
       <c r="AC45" s="4"/>
     </row>
     <row r="46" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A46" s="20">
-        <v>29</v>
-      </c>
+      <c r="A46" s="222"/>
       <c r="B46" s="187"/>
       <c r="C46" s="190"/>
       <c r="D46" s="190"/>
@@ -4202,7 +4212,7 @@
       <c r="AC46" s="4"/>
     </row>
     <row r="47" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A47" s="20"/>
+      <c r="A47" s="222"/>
       <c r="B47" s="187"/>
       <c r="C47" s="190"/>
       <c r="D47" s="46"/>
@@ -4233,9 +4243,7 @@
       <c r="AC47" s="4"/>
     </row>
     <row r="48" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A48" s="20">
-        <v>30</v>
-      </c>
+      <c r="A48" s="222"/>
       <c r="B48" s="187"/>
       <c r="C48" s="190"/>
       <c r="D48" s="46"/>
@@ -4266,9 +4274,7 @@
       <c r="AC48" s="4"/>
     </row>
     <row r="49" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A49" s="20">
-        <v>31</v>
-      </c>
+      <c r="A49" s="223"/>
       <c r="B49" s="187"/>
       <c r="C49" s="190"/>
       <c r="D49" s="46"/>
@@ -4335,7 +4341,7 @@
       </c>
       <c r="B51" s="187"/>
       <c r="C51" s="190"/>
-      <c r="D51" s="257"/>
+      <c r="D51" s="274"/>
       <c r="E51" s="49"/>
       <c r="F51" s="23"/>
       <c r="G51" s="23"/>
@@ -4368,7 +4374,7 @@
       </c>
       <c r="B52" s="187"/>
       <c r="C52" s="190"/>
-      <c r="D52" s="230"/>
+      <c r="D52" s="232"/>
       <c r="E52" s="49"/>
       <c r="F52" s="16"/>
       <c r="G52" s="16"/>
@@ -4401,7 +4407,7 @@
       </c>
       <c r="B53" s="187"/>
       <c r="C53" s="190"/>
-      <c r="D53" s="230"/>
+      <c r="D53" s="232"/>
       <c r="E53" s="53"/>
       <c r="F53" s="54"/>
       <c r="G53" s="55"/>
@@ -4434,7 +4440,7 @@
       </c>
       <c r="B54" s="187"/>
       <c r="C54" s="190"/>
-      <c r="D54" s="230"/>
+      <c r="D54" s="232"/>
       <c r="E54" s="58"/>
       <c r="F54" s="22"/>
       <c r="G54" s="38"/>
@@ -4467,7 +4473,7 @@
       </c>
       <c r="B55" s="187"/>
       <c r="C55" s="190"/>
-      <c r="D55" s="230"/>
+      <c r="D55" s="232"/>
       <c r="E55" s="58"/>
       <c r="F55" s="26"/>
       <c r="G55" s="26"/>
@@ -4500,7 +4506,7 @@
       </c>
       <c r="B56" s="187"/>
       <c r="C56" s="190"/>
-      <c r="D56" s="230"/>
+      <c r="D56" s="232"/>
       <c r="E56" s="58"/>
       <c r="F56" s="22"/>
       <c r="G56" s="55"/>
@@ -4533,7 +4539,7 @@
       </c>
       <c r="B57" s="187"/>
       <c r="C57" s="190"/>
-      <c r="D57" s="230"/>
+      <c r="D57" s="232"/>
       <c r="E57" s="49"/>
       <c r="F57" s="16"/>
       <c r="G57" s="16"/>
@@ -4566,7 +4572,7 @@
       </c>
       <c r="B58" s="187"/>
       <c r="C58" s="190"/>
-      <c r="D58" s="230"/>
+      <c r="D58" s="232"/>
       <c r="E58" s="49"/>
       <c r="F58" s="16"/>
       <c r="G58" s="55"/>
@@ -4599,7 +4605,7 @@
       </c>
       <c r="B59" s="187"/>
       <c r="C59" s="190"/>
-      <c r="D59" s="230"/>
+      <c r="D59" s="232"/>
       <c r="E59" s="49"/>
       <c r="F59" s="16"/>
       <c r="G59" s="16"/>
@@ -4632,7 +4638,7 @@
       </c>
       <c r="B60" s="187"/>
       <c r="C60" s="190"/>
-      <c r="D60" s="230"/>
+      <c r="D60" s="232"/>
       <c r="E60" s="49"/>
       <c r="F60" s="16"/>
       <c r="G60" s="16"/>
@@ -4696,7 +4702,7 @@
       </c>
       <c r="B62" s="187"/>
       <c r="C62" s="190"/>
-      <c r="D62" s="243"/>
+      <c r="D62" s="255"/>
       <c r="E62" s="24"/>
       <c r="F62" s="24"/>
       <c r="G62" s="55"/>
@@ -4729,7 +4735,7 @@
       </c>
       <c r="B63" s="187"/>
       <c r="C63" s="190"/>
-      <c r="D63" s="248"/>
+      <c r="D63" s="260"/>
       <c r="E63" s="24"/>
       <c r="F63" s="24"/>
       <c r="G63" s="50"/>
@@ -4762,7 +4768,7 @@
       </c>
       <c r="B64" s="187"/>
       <c r="C64" s="190"/>
-      <c r="D64" s="248"/>
+      <c r="D64" s="260"/>
       <c r="E64" s="60"/>
       <c r="F64" s="61"/>
       <c r="G64" s="60"/>
@@ -4795,7 +4801,7 @@
       </c>
       <c r="B65" s="187"/>
       <c r="C65" s="190"/>
-      <c r="D65" s="248"/>
+      <c r="D65" s="260"/>
       <c r="E65" s="62"/>
       <c r="F65" s="63"/>
       <c r="G65" s="63"/>
@@ -4828,7 +4834,7 @@
       </c>
       <c r="B66" s="187"/>
       <c r="C66" s="190"/>
-      <c r="D66" s="244"/>
+      <c r="D66" s="256"/>
       <c r="E66" s="35"/>
       <c r="F66" s="35"/>
       <c r="G66" s="35"/>
@@ -4892,7 +4898,7 @@
       </c>
       <c r="B68" s="187"/>
       <c r="C68" s="190"/>
-      <c r="D68" s="243"/>
+      <c r="D68" s="255"/>
       <c r="E68" s="38"/>
       <c r="F68" s="22"/>
       <c r="G68" s="22"/>
@@ -4925,7 +4931,7 @@
       </c>
       <c r="B69" s="187"/>
       <c r="C69" s="190"/>
-      <c r="D69" s="248"/>
+      <c r="D69" s="260"/>
       <c r="E69" s="38"/>
       <c r="F69" s="22"/>
       <c r="G69" s="16"/>
@@ -4989,7 +4995,7 @@
       </c>
       <c r="B71" s="187"/>
       <c r="C71" s="190"/>
-      <c r="D71" s="258"/>
+      <c r="D71" s="275"/>
       <c r="E71" s="45"/>
       <c r="F71" s="16"/>
       <c r="G71" s="16"/>
@@ -5022,7 +5028,7 @@
       </c>
       <c r="B72" s="187"/>
       <c r="C72" s="190"/>
-      <c r="D72" s="248"/>
+      <c r="D72" s="260"/>
       <c r="E72" s="45"/>
       <c r="F72" s="16"/>
       <c r="G72" s="23"/>
@@ -5055,7 +5061,7 @@
       </c>
       <c r="B73" s="187"/>
       <c r="C73" s="190"/>
-      <c r="D73" s="248"/>
+      <c r="D73" s="260"/>
       <c r="E73" s="68"/>
       <c r="F73" s="69"/>
       <c r="G73" s="70"/>
@@ -5088,7 +5094,7 @@
       </c>
       <c r="B74" s="187"/>
       <c r="C74" s="190"/>
-      <c r="D74" s="248"/>
+      <c r="D74" s="260"/>
       <c r="E74" s="71"/>
       <c r="F74" s="22"/>
       <c r="G74" s="54"/>
@@ -5121,7 +5127,7 @@
       </c>
       <c r="B75" s="187"/>
       <c r="C75" s="190"/>
-      <c r="D75" s="248"/>
+      <c r="D75" s="260"/>
       <c r="E75" s="71"/>
       <c r="F75" s="22"/>
       <c r="G75" s="16"/>
@@ -5154,7 +5160,7 @@
       </c>
       <c r="B76" s="187"/>
       <c r="C76" s="190"/>
-      <c r="D76" s="248"/>
+      <c r="D76" s="260"/>
       <c r="E76" s="45"/>
       <c r="F76" s="16"/>
       <c r="G76" s="16"/>
@@ -5187,7 +5193,7 @@
       </c>
       <c r="B77" s="187"/>
       <c r="C77" s="190"/>
-      <c r="D77" s="248"/>
+      <c r="D77" s="260"/>
       <c r="E77" s="45"/>
       <c r="F77" s="16"/>
       <c r="G77" s="16"/>
@@ -5220,7 +5226,7 @@
       </c>
       <c r="B78" s="187"/>
       <c r="C78" s="190"/>
-      <c r="D78" s="248"/>
+      <c r="D78" s="260"/>
       <c r="E78" s="45"/>
       <c r="F78" s="16"/>
       <c r="G78" s="16"/>
@@ -5253,7 +5259,7 @@
       </c>
       <c r="B79" s="187"/>
       <c r="C79" s="190"/>
-      <c r="D79" s="248"/>
+      <c r="D79" s="260"/>
       <c r="E79" s="68"/>
       <c r="F79" s="69"/>
       <c r="G79" s="72"/>
@@ -5286,7 +5292,7 @@
       </c>
       <c r="B80" s="187"/>
       <c r="C80" s="190"/>
-      <c r="D80" s="248"/>
+      <c r="D80" s="260"/>
       <c r="E80" s="73"/>
       <c r="F80" s="74"/>
       <c r="G80" s="74"/>
@@ -5319,7 +5325,7 @@
       </c>
       <c r="B81" s="187"/>
       <c r="C81" s="190"/>
-      <c r="D81" s="248"/>
+      <c r="D81" s="260"/>
       <c r="E81" s="71"/>
       <c r="F81" s="22"/>
       <c r="G81" s="22"/>
@@ -5383,7 +5389,7 @@
       </c>
       <c r="B83" s="187"/>
       <c r="C83" s="190"/>
-      <c r="D83" s="259"/>
+      <c r="D83" s="276"/>
       <c r="E83" s="31"/>
       <c r="F83" s="16"/>
       <c r="G83" s="16"/>
@@ -5416,7 +5422,7 @@
       </c>
       <c r="B84" s="187"/>
       <c r="C84" s="190"/>
-      <c r="D84" s="230"/>
+      <c r="D84" s="232"/>
       <c r="E84" s="31"/>
       <c r="F84" s="16"/>
       <c r="G84" s="16"/>
@@ -5449,7 +5455,7 @@
       </c>
       <c r="B85" s="187"/>
       <c r="C85" s="190"/>
-      <c r="D85" s="230"/>
+      <c r="D85" s="232"/>
       <c r="E85" s="31"/>
       <c r="F85" s="23"/>
       <c r="G85" s="23"/>
@@ -5482,7 +5488,7 @@
       </c>
       <c r="B86" s="187"/>
       <c r="C86" s="190"/>
-      <c r="D86" s="230"/>
+      <c r="D86" s="232"/>
       <c r="E86" s="62"/>
       <c r="F86" s="35"/>
       <c r="G86" s="75"/>
@@ -5515,7 +5521,7 @@
       </c>
       <c r="B87" s="187"/>
       <c r="C87" s="190"/>
-      <c r="D87" s="230"/>
+      <c r="D87" s="232"/>
       <c r="E87" s="31"/>
       <c r="F87" s="16"/>
       <c r="G87" s="16"/>
@@ -5548,7 +5554,7 @@
       </c>
       <c r="B88" s="187"/>
       <c r="C88" s="190"/>
-      <c r="D88" s="230"/>
+      <c r="D88" s="232"/>
       <c r="E88" s="53"/>
       <c r="F88" s="54"/>
       <c r="G88" s="55"/>
@@ -5581,7 +5587,7 @@
       </c>
       <c r="B89" s="187"/>
       <c r="C89" s="190"/>
-      <c r="D89" s="230"/>
+      <c r="D89" s="232"/>
       <c r="E89" s="53"/>
       <c r="F89" s="22"/>
       <c r="G89" s="22"/>
@@ -5614,7 +5620,7 @@
       </c>
       <c r="B90" s="187"/>
       <c r="C90" s="190"/>
-      <c r="D90" s="230"/>
+      <c r="D90" s="232"/>
       <c r="E90" s="53"/>
       <c r="F90" s="22"/>
       <c r="G90" s="16"/>
@@ -5647,7 +5653,7 @@
       </c>
       <c r="B91" s="187"/>
       <c r="C91" s="190"/>
-      <c r="D91" s="230"/>
+      <c r="D91" s="232"/>
       <c r="E91" s="53"/>
       <c r="F91" s="38"/>
       <c r="G91" s="23"/>
@@ -5680,7 +5686,7 @@
       </c>
       <c r="B92" s="187"/>
       <c r="C92" s="190"/>
-      <c r="D92" s="230"/>
+      <c r="D92" s="232"/>
       <c r="E92" s="55"/>
       <c r="F92" s="33"/>
       <c r="G92" s="55"/>
@@ -5744,7 +5750,7 @@
       </c>
       <c r="B94" s="187"/>
       <c r="C94" s="190"/>
-      <c r="D94" s="247"/>
+      <c r="D94" s="259"/>
       <c r="E94" s="55"/>
       <c r="F94" s="56"/>
       <c r="G94" s="56"/>
@@ -5777,7 +5783,7 @@
       </c>
       <c r="B95" s="187"/>
       <c r="C95" s="190"/>
-      <c r="D95" s="248"/>
+      <c r="D95" s="260"/>
       <c r="E95" s="23"/>
       <c r="F95" s="16"/>
       <c r="G95" s="16"/>
@@ -5840,7 +5846,7 @@
       </c>
       <c r="B97" s="187"/>
       <c r="C97" s="190"/>
-      <c r="D97" s="256"/>
+      <c r="D97" s="273"/>
       <c r="E97" s="16"/>
       <c r="F97" s="16"/>
       <c r="G97" s="16"/>
@@ -5873,7 +5879,7 @@
       </c>
       <c r="B98" s="187"/>
       <c r="C98" s="190"/>
-      <c r="D98" s="248"/>
+      <c r="D98" s="260"/>
       <c r="E98" s="55"/>
       <c r="F98" s="56"/>
       <c r="G98" s="31"/>
@@ -5906,7 +5912,7 @@
       </c>
       <c r="B99" s="187"/>
       <c r="C99" s="190"/>
-      <c r="D99" s="248"/>
+      <c r="D99" s="260"/>
       <c r="E99" s="16"/>
       <c r="F99" s="16"/>
       <c r="G99" s="16"/>
@@ -5939,7 +5945,7 @@
       </c>
       <c r="B100" s="187"/>
       <c r="C100" s="190"/>
-      <c r="D100" s="248"/>
+      <c r="D100" s="260"/>
       <c r="E100" s="55"/>
       <c r="F100" s="56"/>
       <c r="G100" s="56"/>
@@ -5972,7 +5978,7 @@
       </c>
       <c r="B101" s="187"/>
       <c r="C101" s="190"/>
-      <c r="D101" s="248"/>
+      <c r="D101" s="260"/>
       <c r="E101" s="35"/>
       <c r="F101" s="35"/>
       <c r="G101" s="79"/>
@@ -6005,7 +6011,7 @@
       </c>
       <c r="B102" s="187"/>
       <c r="C102" s="190"/>
-      <c r="D102" s="248"/>
+      <c r="D102" s="260"/>
       <c r="E102" s="55"/>
       <c r="F102" s="56"/>
       <c r="G102" s="55"/>
@@ -6038,7 +6044,7 @@
       </c>
       <c r="B103" s="187"/>
       <c r="C103" s="190"/>
-      <c r="D103" s="244"/>
+      <c r="D103" s="256"/>
       <c r="E103" s="35"/>
       <c r="F103" s="35"/>
       <c r="G103" s="81"/>
@@ -6102,7 +6108,7 @@
       </c>
       <c r="B105" s="187"/>
       <c r="C105" s="190"/>
-      <c r="D105" s="229"/>
+      <c r="D105" s="231"/>
       <c r="E105" s="60"/>
       <c r="F105" s="87"/>
       <c r="G105" s="34"/>
@@ -6135,7 +6141,7 @@
       </c>
       <c r="B106" s="187"/>
       <c r="C106" s="190"/>
-      <c r="D106" s="230"/>
+      <c r="D106" s="232"/>
       <c r="E106" s="60"/>
       <c r="F106" s="35"/>
       <c r="G106" s="36"/>
@@ -6168,7 +6174,7 @@
       </c>
       <c r="B107" s="187"/>
       <c r="C107" s="190"/>
-      <c r="D107" s="230"/>
+      <c r="D107" s="232"/>
       <c r="E107" s="88"/>
       <c r="F107" s="37"/>
       <c r="G107" s="74"/>
@@ -6201,7 +6207,7 @@
       </c>
       <c r="B108" s="187"/>
       <c r="C108" s="190"/>
-      <c r="D108" s="230"/>
+      <c r="D108" s="232"/>
       <c r="E108" s="88"/>
       <c r="F108" s="37"/>
       <c r="G108" s="37"/>
@@ -6234,7 +6240,7 @@
       </c>
       <c r="B109" s="187"/>
       <c r="C109" s="190"/>
-      <c r="D109" s="230"/>
+      <c r="D109" s="232"/>
       <c r="E109" s="88"/>
       <c r="F109" s="37"/>
       <c r="G109" s="37"/>
@@ -6267,7 +6273,7 @@
       </c>
       <c r="B110" s="187"/>
       <c r="C110" s="190"/>
-      <c r="D110" s="230"/>
+      <c r="D110" s="232"/>
       <c r="E110" s="88"/>
       <c r="F110" s="37"/>
       <c r="G110" s="37"/>
@@ -6300,7 +6306,7 @@
       </c>
       <c r="B111" s="187"/>
       <c r="C111" s="190"/>
-      <c r="D111" s="230"/>
+      <c r="D111" s="232"/>
       <c r="E111" s="88"/>
       <c r="F111" s="37"/>
       <c r="G111" s="37"/>
@@ -6333,7 +6339,7 @@
       </c>
       <c r="B112" s="187"/>
       <c r="C112" s="190"/>
-      <c r="D112" s="230"/>
+      <c r="D112" s="232"/>
       <c r="E112" s="88"/>
       <c r="F112" s="37"/>
       <c r="G112" s="37"/>
@@ -6366,7 +6372,7 @@
       </c>
       <c r="B113" s="187"/>
       <c r="C113" s="190"/>
-      <c r="D113" s="231"/>
+      <c r="D113" s="233"/>
       <c r="E113" s="88"/>
       <c r="F113" s="37"/>
       <c r="G113" s="37"/>
@@ -6494,7 +6500,7 @@
       </c>
       <c r="B117" s="187"/>
       <c r="C117" s="32"/>
-      <c r="D117" s="243"/>
+      <c r="D117" s="255"/>
       <c r="E117" s="91"/>
       <c r="F117" s="91"/>
       <c r="G117" s="91"/>
@@ -6527,7 +6533,7 @@
       </c>
       <c r="B118" s="187"/>
       <c r="C118" s="32"/>
-      <c r="D118" s="244"/>
+      <c r="D118" s="256"/>
       <c r="E118" s="91"/>
       <c r="F118" s="91"/>
       <c r="G118" s="91"/>
@@ -7519,7 +7525,7 @@
       <c r="A150" s="99"/>
       <c r="B150" s="187"/>
       <c r="C150" s="32"/>
-      <c r="D150" s="260"/>
+      <c r="D150" s="277"/>
       <c r="E150" s="90"/>
       <c r="F150" s="37"/>
       <c r="G150" s="37"/>
@@ -7528,7 +7534,7 @@
       <c r="J150" s="37"/>
       <c r="K150" s="21"/>
       <c r="L150" s="28"/>
-      <c r="M150" s="249"/>
+      <c r="M150" s="261"/>
       <c r="N150" s="4"/>
       <c r="O150" s="4"/>
       <c r="P150" s="4"/>
@@ -7550,7 +7556,7 @@
       <c r="A151" s="20"/>
       <c r="B151" s="187"/>
       <c r="C151" s="32"/>
-      <c r="D151" s="248"/>
+      <c r="D151" s="260"/>
       <c r="E151" s="90"/>
       <c r="F151" s="37"/>
       <c r="G151" s="37"/>
@@ -7559,7 +7565,7 @@
       <c r="J151" s="37"/>
       <c r="K151" s="21"/>
       <c r="L151" s="28"/>
-      <c r="M151" s="248"/>
+      <c r="M151" s="260"/>
       <c r="N151" s="4"/>
       <c r="O151" s="4"/>
       <c r="P151" s="4"/>
@@ -7581,7 +7587,7 @@
       <c r="A152" s="20"/>
       <c r="B152" s="187"/>
       <c r="C152" s="32"/>
-      <c r="D152" s="248"/>
+      <c r="D152" s="260"/>
       <c r="E152" s="106"/>
       <c r="F152" s="30"/>
       <c r="G152" s="37"/>
@@ -7590,7 +7596,7 @@
       <c r="J152" s="37"/>
       <c r="K152" s="21"/>
       <c r="L152" s="28"/>
-      <c r="M152" s="248"/>
+      <c r="M152" s="260"/>
       <c r="N152" s="4"/>
       <c r="O152" s="4"/>
       <c r="P152" s="4"/>
@@ -7612,7 +7618,7 @@
       <c r="A153" s="20"/>
       <c r="B153" s="187"/>
       <c r="C153" s="32"/>
-      <c r="D153" s="248"/>
+      <c r="D153" s="260"/>
       <c r="E153" s="107"/>
       <c r="F153" s="103"/>
       <c r="G153" s="67"/>
@@ -7621,7 +7627,7 @@
       <c r="J153" s="37"/>
       <c r="K153" s="21"/>
       <c r="L153" s="28"/>
-      <c r="M153" s="248"/>
+      <c r="M153" s="260"/>
       <c r="N153" s="4"/>
       <c r="O153" s="4"/>
       <c r="P153" s="4"/>
@@ -7643,7 +7649,7 @@
       <c r="A154" s="20"/>
       <c r="B154" s="187"/>
       <c r="C154" s="32"/>
-      <c r="D154" s="248"/>
+      <c r="D154" s="260"/>
       <c r="E154" s="107"/>
       <c r="F154" s="103"/>
       <c r="G154" s="67"/>
@@ -7652,7 +7658,7 @@
       <c r="J154" s="37"/>
       <c r="K154" s="21"/>
       <c r="L154" s="28"/>
-      <c r="M154" s="248"/>
+      <c r="M154" s="260"/>
       <c r="N154" s="4"/>
       <c r="O154" s="4"/>
       <c r="P154" s="4"/>
@@ -7674,7 +7680,7 @@
       <c r="A155" s="20"/>
       <c r="B155" s="187"/>
       <c r="C155" s="32"/>
-      <c r="D155" s="248"/>
+      <c r="D155" s="260"/>
       <c r="E155" s="107"/>
       <c r="F155" s="103"/>
       <c r="G155" s="67"/>
@@ -7683,7 +7689,7 @@
       <c r="J155" s="37"/>
       <c r="K155" s="21"/>
       <c r="L155" s="28"/>
-      <c r="M155" s="248"/>
+      <c r="M155" s="260"/>
       <c r="N155" s="4"/>
       <c r="O155" s="4"/>
       <c r="P155" s="4"/>
@@ -7705,7 +7711,7 @@
       <c r="A156" s="20"/>
       <c r="B156" s="187"/>
       <c r="C156" s="32"/>
-      <c r="D156" s="248"/>
+      <c r="D156" s="260"/>
       <c r="E156" s="107"/>
       <c r="F156" s="103"/>
       <c r="G156" s="67"/>
@@ -7714,7 +7720,7 @@
       <c r="J156" s="37"/>
       <c r="K156" s="21"/>
       <c r="L156" s="28"/>
-      <c r="M156" s="248"/>
+      <c r="M156" s="260"/>
       <c r="N156" s="4"/>
       <c r="O156" s="4"/>
       <c r="P156" s="4"/>
@@ -7736,7 +7742,7 @@
       <c r="A157" s="20"/>
       <c r="B157" s="187"/>
       <c r="C157" s="32"/>
-      <c r="D157" s="248"/>
+      <c r="D157" s="260"/>
       <c r="E157" s="90"/>
       <c r="F157" s="37"/>
       <c r="G157" s="37"/>
@@ -7745,7 +7751,7 @@
       <c r="J157" s="37"/>
       <c r="K157" s="21"/>
       <c r="L157" s="28"/>
-      <c r="M157" s="244"/>
+      <c r="M157" s="256"/>
       <c r="N157" s="4"/>
       <c r="O157" s="4"/>
       <c r="P157" s="4"/>
@@ -7767,7 +7773,7 @@
       <c r="A158" s="20"/>
       <c r="B158" s="187"/>
       <c r="C158" s="32"/>
-      <c r="D158" s="248"/>
+      <c r="D158" s="260"/>
       <c r="E158" s="90"/>
       <c r="F158" s="37"/>
       <c r="G158" s="37"/>
@@ -7798,7 +7804,7 @@
       <c r="A159" s="20"/>
       <c r="B159" s="187"/>
       <c r="C159" s="32"/>
-      <c r="D159" s="248"/>
+      <c r="D159" s="260"/>
       <c r="E159" s="90"/>
       <c r="F159" s="37"/>
       <c r="G159" s="37"/>
@@ -7829,7 +7835,7 @@
       <c r="A160" s="20"/>
       <c r="B160" s="188"/>
       <c r="C160" s="32"/>
-      <c r="D160" s="248"/>
+      <c r="D160" s="260"/>
       <c r="E160" s="90"/>
       <c r="F160" s="37"/>
       <c r="G160" s="37"/>
@@ -7893,7 +7899,7 @@
       <c r="C162" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D162" s="261"/>
+      <c r="D162" s="278"/>
       <c r="E162" s="67"/>
       <c r="F162" s="37"/>
       <c r="G162" s="37"/>
@@ -7924,7 +7930,7 @@
       <c r="A163" s="20"/>
       <c r="B163" s="13"/>
       <c r="C163" s="109"/>
-      <c r="D163" s="248"/>
+      <c r="D163" s="260"/>
       <c r="E163" s="67"/>
       <c r="F163" s="37"/>
       <c r="G163" s="37"/>
@@ -7955,7 +7961,7 @@
       <c r="A164" s="20"/>
       <c r="B164" s="13"/>
       <c r="C164" s="109"/>
-      <c r="D164" s="248"/>
+      <c r="D164" s="260"/>
       <c r="E164" s="67"/>
       <c r="F164" s="37"/>
       <c r="G164" s="37"/>
@@ -7986,7 +7992,7 @@
       <c r="A165" s="20"/>
       <c r="B165" s="13"/>
       <c r="C165" s="13"/>
-      <c r="D165" s="248"/>
+      <c r="D165" s="260"/>
       <c r="E165" s="110"/>
       <c r="F165" s="74"/>
       <c r="G165" s="37"/>
@@ -8017,7 +8023,7 @@
       <c r="A166" s="20"/>
       <c r="B166" s="28"/>
       <c r="C166" s="13"/>
-      <c r="D166" s="248"/>
+      <c r="D166" s="260"/>
       <c r="E166" s="110"/>
       <c r="F166" s="74"/>
       <c r="G166" s="37"/>
@@ -8048,7 +8054,7 @@
       <c r="A167" s="20"/>
       <c r="B167" s="28"/>
       <c r="C167" s="13"/>
-      <c r="D167" s="248"/>
+      <c r="D167" s="260"/>
       <c r="E167" s="110"/>
       <c r="F167" s="74"/>
       <c r="G167" s="37"/>
@@ -8079,7 +8085,7 @@
       <c r="A168" s="20"/>
       <c r="B168" s="28"/>
       <c r="C168" s="13"/>
-      <c r="D168" s="248"/>
+      <c r="D168" s="260"/>
       <c r="E168" s="67"/>
       <c r="F168" s="37"/>
       <c r="G168" s="37"/>
@@ -8110,7 +8116,7 @@
       <c r="A169" s="20"/>
       <c r="B169" s="28"/>
       <c r="C169" s="13"/>
-      <c r="D169" s="248"/>
+      <c r="D169" s="260"/>
       <c r="E169" s="67"/>
       <c r="F169" s="37"/>
       <c r="G169" s="37"/>
@@ -8141,7 +8147,7 @@
       <c r="A170" s="20"/>
       <c r="B170" s="28"/>
       <c r="C170" s="28"/>
-      <c r="D170" s="244"/>
+      <c r="D170" s="256"/>
       <c r="E170" s="67"/>
       <c r="F170" s="37"/>
       <c r="G170" s="37"/>
@@ -9481,8 +9487,8 @@
       <c r="H213" s="16"/>
       <c r="I213" s="38"/>
       <c r="J213" s="38"/>
-      <c r="K213" s="243"/>
-      <c r="L213" s="250"/>
+      <c r="K213" s="255"/>
+      <c r="L213" s="262"/>
       <c r="M213" s="18"/>
       <c r="N213" s="4"/>
       <c r="O213" s="4"/>
@@ -9512,8 +9518,8 @@
       <c r="H214" s="16"/>
       <c r="I214" s="71"/>
       <c r="J214" s="71"/>
-      <c r="K214" s="248"/>
-      <c r="L214" s="248"/>
+      <c r="K214" s="260"/>
+      <c r="L214" s="260"/>
       <c r="M214" s="18"/>
       <c r="N214" s="4"/>
       <c r="O214" s="4"/>
@@ -9543,8 +9549,8 @@
       <c r="H215" s="16"/>
       <c r="I215" s="54"/>
       <c r="J215" s="54"/>
-      <c r="K215" s="244"/>
-      <c r="L215" s="244"/>
+      <c r="K215" s="256"/>
+      <c r="L215" s="256"/>
       <c r="M215" s="18"/>
       <c r="N215" s="4"/>
       <c r="O215" s="4"/>
@@ -9752,10 +9758,10 @@
     <row r="222" spans="1:29" ht="15.75" customHeight="1">
       <c r="A222" s="20"/>
       <c r="B222" s="21"/>
-      <c r="C222" s="250"/>
+      <c r="C222" s="262"/>
       <c r="D222" s="13"/>
       <c r="E222" s="16"/>
-      <c r="F222" s="247"/>
+      <c r="F222" s="259"/>
       <c r="G222" s="16"/>
       <c r="H222" s="16"/>
       <c r="I222" s="16"/>
@@ -9783,10 +9789,10 @@
     <row r="223" spans="1:29" ht="15.75" customHeight="1">
       <c r="A223" s="20"/>
       <c r="B223" s="21"/>
-      <c r="C223" s="248"/>
+      <c r="C223" s="260"/>
       <c r="D223" s="13"/>
       <c r="E223" s="16"/>
-      <c r="F223" s="248"/>
+      <c r="F223" s="260"/>
       <c r="G223" s="16"/>
       <c r="H223" s="16"/>
       <c r="I223" s="16"/>
@@ -9814,10 +9820,10 @@
     <row r="224" spans="1:29" ht="15.75" customHeight="1">
       <c r="A224" s="20"/>
       <c r="B224" s="21"/>
-      <c r="C224" s="248"/>
+      <c r="C224" s="260"/>
       <c r="D224" s="13"/>
       <c r="E224" s="16"/>
-      <c r="F224" s="244"/>
+      <c r="F224" s="256"/>
       <c r="G224" s="16"/>
       <c r="H224" s="16"/>
       <c r="I224" s="16"/>
@@ -9845,7 +9851,7 @@
     <row r="225" spans="1:29" ht="15.75" customHeight="1">
       <c r="A225" s="20"/>
       <c r="B225" s="21"/>
-      <c r="C225" s="248"/>
+      <c r="C225" s="260"/>
       <c r="D225" s="13"/>
       <c r="E225" s="16"/>
       <c r="F225" s="16"/>
@@ -9876,7 +9882,7 @@
     <row r="226" spans="1:29" ht="15.75" customHeight="1">
       <c r="A226" s="20"/>
       <c r="B226" s="21"/>
-      <c r="C226" s="248"/>
+      <c r="C226" s="260"/>
       <c r="D226" s="13"/>
       <c r="E226" s="16"/>
       <c r="F226" s="16"/>
@@ -9907,7 +9913,7 @@
     <row r="227" spans="1:29" ht="15.75" customHeight="1">
       <c r="A227" s="20"/>
       <c r="B227" s="21"/>
-      <c r="C227" s="248"/>
+      <c r="C227" s="260"/>
       <c r="D227" s="13"/>
       <c r="E227" s="16"/>
       <c r="F227" s="16"/>
@@ -9938,7 +9944,7 @@
     <row r="228" spans="1:29" ht="15.75" customHeight="1">
       <c r="A228" s="20"/>
       <c r="B228" s="21"/>
-      <c r="C228" s="244"/>
+      <c r="C228" s="256"/>
       <c r="D228" s="13"/>
       <c r="E228" s="16"/>
       <c r="F228" s="16"/>
@@ -9969,7 +9975,7 @@
     <row r="229" spans="1:29" ht="15.75" customHeight="1">
       <c r="A229" s="20"/>
       <c r="B229" s="21"/>
-      <c r="C229" s="255"/>
+      <c r="C229" s="272"/>
       <c r="D229" s="114"/>
       <c r="E229" s="23"/>
       <c r="F229" s="16"/>
@@ -10000,7 +10006,7 @@
     <row r="230" spans="1:29" ht="15.75" customHeight="1">
       <c r="A230" s="20"/>
       <c r="B230" s="21"/>
-      <c r="C230" s="244"/>
+      <c r="C230" s="256"/>
       <c r="D230" s="110"/>
       <c r="E230" s="48"/>
       <c r="F230" s="16"/>
@@ -10062,7 +10068,7 @@
     <row r="232" spans="1:29" ht="30" customHeight="1">
       <c r="A232" s="20"/>
       <c r="B232" s="21"/>
-      <c r="C232" s="255"/>
+      <c r="C232" s="272"/>
       <c r="D232" s="114"/>
       <c r="E232" s="23"/>
       <c r="F232" s="16"/>
@@ -10093,7 +10099,7 @@
     <row r="233" spans="1:29" ht="15.75" customHeight="1">
       <c r="A233" s="20"/>
       <c r="B233" s="21"/>
-      <c r="C233" s="248"/>
+      <c r="C233" s="260"/>
       <c r="D233" s="73"/>
       <c r="E233" s="45"/>
       <c r="F233" s="16"/>
@@ -10124,7 +10130,7 @@
     <row r="234" spans="1:29" ht="15.75" customHeight="1">
       <c r="A234" s="20"/>
       <c r="B234" s="21"/>
-      <c r="C234" s="248"/>
+      <c r="C234" s="260"/>
       <c r="D234" s="73"/>
       <c r="E234" s="45"/>
       <c r="F234" s="16"/>
@@ -10155,7 +10161,7 @@
     <row r="235" spans="1:29" ht="15.75" customHeight="1">
       <c r="A235" s="20"/>
       <c r="B235" s="21"/>
-      <c r="C235" s="248"/>
+      <c r="C235" s="260"/>
       <c r="D235" s="73"/>
       <c r="E235" s="45"/>
       <c r="F235" s="16"/>
@@ -10186,7 +10192,7 @@
     <row r="236" spans="1:29" ht="15.75" customHeight="1">
       <c r="A236" s="20"/>
       <c r="B236" s="21"/>
-      <c r="C236" s="244"/>
+      <c r="C236" s="256"/>
       <c r="D236" s="73"/>
       <c r="E236" s="138"/>
       <c r="F236" s="139"/>
@@ -10566,7 +10572,7 @@
       <c r="H248" s="129"/>
       <c r="I248" s="129"/>
       <c r="J248" s="129"/>
-      <c r="K248" s="251"/>
+      <c r="K248" s="263"/>
       <c r="L248" s="28"/>
       <c r="M248" s="94"/>
       <c r="N248" s="4"/>
@@ -10597,7 +10603,7 @@
       <c r="H249" s="129"/>
       <c r="I249" s="129"/>
       <c r="J249" s="129"/>
-      <c r="K249" s="244"/>
+      <c r="K249" s="256"/>
       <c r="L249" s="28"/>
       <c r="M249" s="94"/>
       <c r="N249" s="4"/>
@@ -10682,7 +10688,7 @@
     <row r="252" spans="1:29" ht="15.75" customHeight="1">
       <c r="A252" s="20"/>
       <c r="B252" s="21"/>
-      <c r="C252" s="255"/>
+      <c r="C252" s="272"/>
       <c r="D252" s="114"/>
       <c r="E252" s="23"/>
       <c r="F252" s="16"/>
@@ -10690,7 +10696,7 @@
       <c r="H252" s="129"/>
       <c r="I252" s="129"/>
       <c r="J252" s="129"/>
-      <c r="K252" s="243"/>
+      <c r="K252" s="255"/>
       <c r="L252" s="28"/>
       <c r="M252" s="94"/>
       <c r="N252" s="4"/>
@@ -10713,7 +10719,7 @@
     <row r="253" spans="1:29" ht="15.75" customHeight="1">
       <c r="A253" s="20"/>
       <c r="B253" s="21"/>
-      <c r="C253" s="244"/>
+      <c r="C253" s="256"/>
       <c r="D253" s="110"/>
       <c r="E253" s="48"/>
       <c r="F253" s="16"/>
@@ -10721,7 +10727,7 @@
       <c r="H253" s="129"/>
       <c r="I253" s="129"/>
       <c r="J253" s="129"/>
-      <c r="K253" s="244"/>
+      <c r="K253" s="256"/>
       <c r="L253" s="28"/>
       <c r="M253" s="94"/>
       <c r="N253" s="4"/>
@@ -10744,7 +10750,7 @@
     <row r="254" spans="1:29" ht="15.75" customHeight="1">
       <c r="A254" s="20"/>
       <c r="B254" s="21"/>
-      <c r="C254" s="250"/>
+      <c r="C254" s="262"/>
       <c r="D254" s="19"/>
       <c r="E254" s="114"/>
       <c r="F254" s="74"/>
@@ -10775,7 +10781,7 @@
     <row r="255" spans="1:29" ht="15.75" customHeight="1">
       <c r="A255" s="20"/>
       <c r="B255" s="21"/>
-      <c r="C255" s="244"/>
+      <c r="C255" s="256"/>
       <c r="D255" s="92"/>
       <c r="E255" s="110"/>
       <c r="F255" s="74"/>
@@ -10837,7 +10843,7 @@
     <row r="257" spans="1:29" ht="15.75" customHeight="1">
       <c r="A257" s="20"/>
       <c r="B257" s="21"/>
-      <c r="C257" s="255"/>
+      <c r="C257" s="272"/>
       <c r="D257" s="114"/>
       <c r="E257" s="114"/>
       <c r="F257" s="74"/>
@@ -10868,7 +10874,7 @@
     <row r="258" spans="1:29" ht="15.75" customHeight="1">
       <c r="A258" s="20"/>
       <c r="B258" s="21"/>
-      <c r="C258" s="248"/>
+      <c r="C258" s="260"/>
       <c r="D258" s="73"/>
       <c r="E258" s="73"/>
       <c r="F258" s="74"/>
@@ -10899,7 +10905,7 @@
     <row r="259" spans="1:29" ht="15.75" customHeight="1">
       <c r="A259" s="20"/>
       <c r="B259" s="21"/>
-      <c r="C259" s="244"/>
+      <c r="C259" s="256"/>
       <c r="D259" s="110"/>
       <c r="E259" s="110"/>
       <c r="F259" s="74"/>
@@ -11084,11 +11090,11 @@
     </row>
     <row r="265" spans="1:29" ht="15.75" customHeight="1">
       <c r="A265" s="25"/>
-      <c r="B265" s="262"/>
-      <c r="C265" s="250"/>
+      <c r="B265" s="282"/>
+      <c r="C265" s="262"/>
       <c r="D265" s="13"/>
       <c r="E265" s="13"/>
-      <c r="F265" s="250"/>
+      <c r="F265" s="262"/>
       <c r="G265" s="149"/>
       <c r="H265" s="149"/>
       <c r="I265" s="149"/>
@@ -11115,11 +11121,11 @@
     </row>
     <row r="266" spans="1:29" ht="15.75" customHeight="1">
       <c r="A266" s="25"/>
-      <c r="B266" s="248"/>
-      <c r="C266" s="248"/>
+      <c r="B266" s="260"/>
+      <c r="C266" s="260"/>
       <c r="D266" s="13"/>
       <c r="E266" s="13"/>
-      <c r="F266" s="248"/>
+      <c r="F266" s="260"/>
       <c r="G266" s="149"/>
       <c r="H266" s="149"/>
       <c r="I266" s="149"/>
@@ -11146,11 +11152,11 @@
     </row>
     <row r="267" spans="1:29" ht="15.75" customHeight="1">
       <c r="A267" s="25"/>
-      <c r="B267" s="248"/>
-      <c r="C267" s="248"/>
+      <c r="B267" s="260"/>
+      <c r="C267" s="260"/>
       <c r="D267" s="13"/>
       <c r="E267" s="13"/>
-      <c r="F267" s="248"/>
+      <c r="F267" s="260"/>
       <c r="G267" s="149"/>
       <c r="H267" s="149"/>
       <c r="I267" s="149"/>
@@ -11177,11 +11183,11 @@
     </row>
     <row r="268" spans="1:29" ht="15.75" customHeight="1">
       <c r="A268" s="25"/>
-      <c r="B268" s="248"/>
-      <c r="C268" s="248"/>
+      <c r="B268" s="260"/>
+      <c r="C268" s="260"/>
       <c r="D268" s="13"/>
       <c r="E268" s="13"/>
-      <c r="F268" s="248"/>
+      <c r="F268" s="260"/>
       <c r="G268" s="149"/>
       <c r="H268" s="149"/>
       <c r="I268" s="149"/>
@@ -11208,11 +11214,11 @@
     </row>
     <row r="269" spans="1:29" ht="15.75" customHeight="1">
       <c r="A269" s="25"/>
-      <c r="B269" s="248"/>
-      <c r="C269" s="248"/>
+      <c r="B269" s="260"/>
+      <c r="C269" s="260"/>
       <c r="D269" s="13"/>
       <c r="E269" s="13"/>
-      <c r="F269" s="248"/>
+      <c r="F269" s="260"/>
       <c r="G269" s="149"/>
       <c r="H269" s="149"/>
       <c r="I269" s="149"/>
@@ -11239,11 +11245,11 @@
     </row>
     <row r="270" spans="1:29" ht="15.75" customHeight="1">
       <c r="A270" s="25"/>
-      <c r="B270" s="248"/>
-      <c r="C270" s="248"/>
+      <c r="B270" s="260"/>
+      <c r="C270" s="260"/>
       <c r="D270" s="13"/>
       <c r="E270" s="13"/>
-      <c r="F270" s="248"/>
+      <c r="F270" s="260"/>
       <c r="G270" s="150"/>
       <c r="H270" s="150"/>
       <c r="I270" s="150"/>
@@ -11270,11 +11276,11 @@
     </row>
     <row r="271" spans="1:29" ht="15.75" customHeight="1">
       <c r="A271" s="25"/>
-      <c r="B271" s="248"/>
-      <c r="C271" s="248"/>
+      <c r="B271" s="260"/>
+      <c r="C271" s="260"/>
       <c r="D271" s="13"/>
       <c r="E271" s="13"/>
-      <c r="F271" s="248"/>
+      <c r="F271" s="260"/>
       <c r="G271" s="149"/>
       <c r="H271" s="149"/>
       <c r="I271" s="149"/>
@@ -11301,11 +11307,11 @@
     </row>
     <row r="272" spans="1:29" ht="15.75" customHeight="1">
       <c r="A272" s="25"/>
-      <c r="B272" s="248"/>
-      <c r="C272" s="248"/>
+      <c r="B272" s="260"/>
+      <c r="C272" s="260"/>
       <c r="D272" s="13"/>
       <c r="E272" s="13"/>
-      <c r="F272" s="244"/>
+      <c r="F272" s="256"/>
       <c r="G272" s="149"/>
       <c r="H272" s="149"/>
       <c r="I272" s="149"/>
@@ -11332,8 +11338,8 @@
     </row>
     <row r="273" spans="1:29" ht="15.75" customHeight="1">
       <c r="A273" s="25"/>
-      <c r="B273" s="248"/>
-      <c r="C273" s="248"/>
+      <c r="B273" s="260"/>
+      <c r="C273" s="260"/>
       <c r="D273" s="13"/>
       <c r="E273" s="28"/>
       <c r="F273" s="28"/>
@@ -11363,8 +11369,8 @@
     </row>
     <row r="274" spans="1:29" ht="15.75" customHeight="1">
       <c r="A274" s="25"/>
-      <c r="B274" s="248"/>
-      <c r="C274" s="248"/>
+      <c r="B274" s="260"/>
+      <c r="C274" s="260"/>
       <c r="D274" s="13"/>
       <c r="E274" s="28"/>
       <c r="F274" s="28"/>
@@ -11394,11 +11400,11 @@
     </row>
     <row r="275" spans="1:29" ht="15.75" customHeight="1">
       <c r="A275" s="25"/>
-      <c r="B275" s="248"/>
-      <c r="C275" s="248"/>
+      <c r="B275" s="260"/>
+      <c r="C275" s="260"/>
       <c r="D275" s="19"/>
       <c r="E275" s="19"/>
-      <c r="F275" s="250"/>
+      <c r="F275" s="262"/>
       <c r="G275" s="30"/>
       <c r="H275" s="30"/>
       <c r="I275" s="30"/>
@@ -11425,11 +11431,11 @@
     </row>
     <row r="276" spans="1:29" ht="15.75" customHeight="1">
       <c r="A276" s="25"/>
-      <c r="B276" s="248"/>
-      <c r="C276" s="248"/>
+      <c r="B276" s="260"/>
+      <c r="C276" s="260"/>
       <c r="D276" s="108"/>
       <c r="E276" s="108"/>
-      <c r="F276" s="248"/>
+      <c r="F276" s="260"/>
       <c r="G276" s="25"/>
       <c r="H276" s="25"/>
       <c r="I276" s="25"/>
@@ -11456,11 +11462,11 @@
     </row>
     <row r="277" spans="1:29" ht="15.75" customHeight="1">
       <c r="A277" s="25"/>
-      <c r="B277" s="248"/>
-      <c r="C277" s="248"/>
+      <c r="B277" s="260"/>
+      <c r="C277" s="260"/>
       <c r="D277" s="108"/>
       <c r="E277" s="108"/>
-      <c r="F277" s="248"/>
+      <c r="F277" s="260"/>
       <c r="G277" s="25"/>
       <c r="H277" s="25"/>
       <c r="I277" s="25"/>
@@ -11487,11 +11493,11 @@
     </row>
     <row r="278" spans="1:29" ht="15.75" customHeight="1">
       <c r="A278" s="25"/>
-      <c r="B278" s="248"/>
-      <c r="C278" s="244"/>
+      <c r="B278" s="260"/>
+      <c r="C278" s="256"/>
       <c r="D278" s="92"/>
       <c r="E278" s="92"/>
-      <c r="F278" s="244"/>
+      <c r="F278" s="256"/>
       <c r="G278" s="25"/>
       <c r="H278" s="25"/>
       <c r="I278" s="25"/>
@@ -11518,7 +11524,7 @@
     </row>
     <row r="279" spans="1:29" ht="15.75" customHeight="1">
       <c r="A279" s="25"/>
-      <c r="B279" s="248"/>
+      <c r="B279" s="260"/>
       <c r="C279" s="13"/>
       <c r="D279" s="108"/>
       <c r="E279" s="108"/>
@@ -11549,11 +11555,11 @@
     </row>
     <row r="280" spans="1:29" ht="15.75" customHeight="1">
       <c r="A280" s="25"/>
-      <c r="B280" s="248"/>
-      <c r="C280" s="250"/>
+      <c r="B280" s="260"/>
+      <c r="C280" s="262"/>
       <c r="D280" s="19"/>
       <c r="E280" s="99"/>
-      <c r="F280" s="263"/>
+      <c r="F280" s="283"/>
       <c r="G280" s="37"/>
       <c r="H280" s="37"/>
       <c r="I280" s="37"/>
@@ -11580,11 +11586,11 @@
     </row>
     <row r="281" spans="1:29" ht="15.75" customHeight="1">
       <c r="A281" s="25"/>
-      <c r="B281" s="248"/>
-      <c r="C281" s="248"/>
+      <c r="B281" s="260"/>
+      <c r="C281" s="260"/>
       <c r="D281" s="92"/>
       <c r="E281" s="113"/>
-      <c r="F281" s="244"/>
+      <c r="F281" s="256"/>
       <c r="G281" s="37"/>
       <c r="H281" s="37"/>
       <c r="I281" s="37"/>
@@ -11611,11 +11617,11 @@
     </row>
     <row r="282" spans="1:29" ht="15.75" customHeight="1">
       <c r="A282" s="25"/>
-      <c r="B282" s="248"/>
-      <c r="C282" s="248"/>
+      <c r="B282" s="260"/>
+      <c r="C282" s="260"/>
       <c r="D282" s="13"/>
       <c r="E282" s="20"/>
-      <c r="F282" s="263"/>
+      <c r="F282" s="283"/>
       <c r="G282" s="37"/>
       <c r="H282" s="37"/>
       <c r="I282" s="37"/>
@@ -11642,11 +11648,11 @@
     </row>
     <row r="283" spans="1:29" ht="15.75" customHeight="1">
       <c r="A283" s="25"/>
-      <c r="B283" s="248"/>
-      <c r="C283" s="244"/>
+      <c r="B283" s="260"/>
+      <c r="C283" s="256"/>
       <c r="D283" s="13"/>
       <c r="E283" s="20"/>
-      <c r="F283" s="244"/>
+      <c r="F283" s="256"/>
       <c r="G283" s="37"/>
       <c r="H283" s="37"/>
       <c r="I283" s="37"/>
@@ -11673,7 +11679,7 @@
     </row>
     <row r="284" spans="1:29" ht="15.75" customHeight="1">
       <c r="A284" s="25"/>
-      <c r="B284" s="248"/>
+      <c r="B284" s="260"/>
       <c r="C284" s="28"/>
       <c r="D284" s="28"/>
       <c r="E284" s="25"/>
@@ -11704,11 +11710,11 @@
     </row>
     <row r="285" spans="1:29" ht="15.75" customHeight="1">
       <c r="A285" s="25"/>
-      <c r="B285" s="248"/>
-      <c r="C285" s="250"/>
+      <c r="B285" s="260"/>
+      <c r="C285" s="262"/>
       <c r="D285" s="19"/>
       <c r="E285" s="19"/>
-      <c r="F285" s="250"/>
+      <c r="F285" s="262"/>
       <c r="G285" s="30"/>
       <c r="H285" s="30"/>
       <c r="I285" s="30"/>
@@ -11735,11 +11741,11 @@
     </row>
     <row r="286" spans="1:29" ht="15.75" customHeight="1">
       <c r="A286" s="25"/>
-      <c r="B286" s="248"/>
-      <c r="C286" s="248"/>
+      <c r="B286" s="260"/>
+      <c r="C286" s="260"/>
       <c r="D286" s="108"/>
       <c r="E286" s="108"/>
-      <c r="F286" s="248"/>
+      <c r="F286" s="260"/>
       <c r="G286" s="30"/>
       <c r="H286" s="30"/>
       <c r="I286" s="30"/>
@@ -11766,11 +11772,11 @@
     </row>
     <row r="287" spans="1:29" ht="15.75" customHeight="1">
       <c r="A287" s="25"/>
-      <c r="B287" s="248"/>
-      <c r="C287" s="248"/>
+      <c r="B287" s="260"/>
+      <c r="C287" s="260"/>
       <c r="D287" s="108"/>
       <c r="E287" s="108"/>
-      <c r="F287" s="248"/>
+      <c r="F287" s="260"/>
       <c r="G287" s="30"/>
       <c r="H287" s="30"/>
       <c r="I287" s="30"/>
@@ -11797,11 +11803,11 @@
     </row>
     <row r="288" spans="1:29" ht="15.75" customHeight="1">
       <c r="A288" s="25"/>
-      <c r="B288" s="248"/>
-      <c r="C288" s="248"/>
+      <c r="B288" s="260"/>
+      <c r="C288" s="260"/>
       <c r="D288" s="108"/>
       <c r="E288" s="108"/>
-      <c r="F288" s="248"/>
+      <c r="F288" s="260"/>
       <c r="G288" s="30"/>
       <c r="H288" s="30"/>
       <c r="I288" s="30"/>
@@ -11828,11 +11834,11 @@
     </row>
     <row r="289" spans="1:29" ht="15.75" customHeight="1">
       <c r="A289" s="25"/>
-      <c r="B289" s="248"/>
-      <c r="C289" s="248"/>
+      <c r="B289" s="260"/>
+      <c r="C289" s="260"/>
       <c r="D289" s="108"/>
       <c r="E289" s="108"/>
-      <c r="F289" s="248"/>
+      <c r="F289" s="260"/>
       <c r="G289" s="149"/>
       <c r="H289" s="149"/>
       <c r="I289" s="149"/>
@@ -11859,11 +11865,11 @@
     </row>
     <row r="290" spans="1:29" ht="15.75" customHeight="1">
       <c r="A290" s="25"/>
-      <c r="B290" s="248"/>
-      <c r="C290" s="248"/>
+      <c r="B290" s="260"/>
+      <c r="C290" s="260"/>
       <c r="D290" s="92"/>
       <c r="E290" s="92"/>
-      <c r="F290" s="244"/>
+      <c r="F290" s="256"/>
       <c r="G290" s="149"/>
       <c r="H290" s="149"/>
       <c r="I290" s="149"/>
@@ -11890,11 +11896,11 @@
     </row>
     <row r="291" spans="1:29" ht="15.75" customHeight="1">
       <c r="A291" s="25"/>
-      <c r="B291" s="248"/>
-      <c r="C291" s="248"/>
+      <c r="B291" s="260"/>
+      <c r="C291" s="260"/>
       <c r="D291" s="19"/>
       <c r="E291" s="19"/>
-      <c r="F291" s="250"/>
+      <c r="F291" s="262"/>
       <c r="G291" s="30"/>
       <c r="H291" s="30"/>
       <c r="I291" s="30"/>
@@ -11921,11 +11927,11 @@
     </row>
     <row r="292" spans="1:29" ht="15.75" customHeight="1">
       <c r="A292" s="25"/>
-      <c r="B292" s="248"/>
-      <c r="C292" s="248"/>
+      <c r="B292" s="260"/>
+      <c r="C292" s="260"/>
       <c r="D292" s="108"/>
       <c r="E292" s="108"/>
-      <c r="F292" s="248"/>
+      <c r="F292" s="260"/>
       <c r="G292" s="25"/>
       <c r="H292" s="25"/>
       <c r="I292" s="25"/>
@@ -11952,11 +11958,11 @@
     </row>
     <row r="293" spans="1:29" ht="15.75" customHeight="1">
       <c r="A293" s="25"/>
-      <c r="B293" s="248"/>
-      <c r="C293" s="248"/>
+      <c r="B293" s="260"/>
+      <c r="C293" s="260"/>
       <c r="D293" s="108"/>
       <c r="E293" s="108"/>
-      <c r="F293" s="248"/>
+      <c r="F293" s="260"/>
       <c r="G293" s="25"/>
       <c r="H293" s="25"/>
       <c r="I293" s="25"/>
@@ -11983,11 +11989,11 @@
     </row>
     <row r="294" spans="1:29" ht="15.75" customHeight="1">
       <c r="A294" s="25"/>
-      <c r="B294" s="244"/>
-      <c r="C294" s="244"/>
+      <c r="B294" s="256"/>
+      <c r="C294" s="256"/>
       <c r="D294" s="92"/>
       <c r="E294" s="92"/>
-      <c r="F294" s="244"/>
+      <c r="F294" s="256"/>
       <c r="G294" s="25"/>
       <c r="H294" s="25"/>
       <c r="I294" s="25"/>
@@ -14762,7 +14768,7 @@
     <row r="1002" ht="15.75" customHeight="1"/>
     <row r="1003" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="94">
+  <mergeCells count="95">
     <mergeCell ref="K32:K38"/>
     <mergeCell ref="L32:L38"/>
     <mergeCell ref="A39:A44"/>
@@ -14779,7 +14785,6 @@
     <mergeCell ref="C32:C38"/>
     <mergeCell ref="B39:B44"/>
     <mergeCell ref="C39:C44"/>
-    <mergeCell ref="A32:A38"/>
     <mergeCell ref="E32:E38"/>
     <mergeCell ref="F32:F38"/>
     <mergeCell ref="G32:G38"/>
@@ -14795,22 +14800,18 @@
     <mergeCell ref="A19:A24"/>
     <mergeCell ref="E19:E24"/>
     <mergeCell ref="F19:F24"/>
-    <mergeCell ref="G19:G24"/>
+    <mergeCell ref="C254:C255"/>
+    <mergeCell ref="C280:C283"/>
+    <mergeCell ref="C285:C294"/>
+    <mergeCell ref="F285:F290"/>
+    <mergeCell ref="F291:F294"/>
+    <mergeCell ref="C257:C259"/>
     <mergeCell ref="B265:B294"/>
     <mergeCell ref="C265:C278"/>
     <mergeCell ref="F265:F272"/>
     <mergeCell ref="F275:F278"/>
     <mergeCell ref="F280:F281"/>
     <mergeCell ref="F282:F283"/>
-    <mergeCell ref="C254:C255"/>
-    <mergeCell ref="C280:C283"/>
-    <mergeCell ref="C285:C294"/>
-    <mergeCell ref="F285:F290"/>
-    <mergeCell ref="F291:F294"/>
-    <mergeCell ref="C257:C259"/>
-    <mergeCell ref="C222:C228"/>
-    <mergeCell ref="C229:C230"/>
-    <mergeCell ref="C232:C236"/>
     <mergeCell ref="C252:C253"/>
     <mergeCell ref="D97:D103"/>
     <mergeCell ref="D94:D95"/>
@@ -14822,6 +14823,9 @@
     <mergeCell ref="D117:D118"/>
     <mergeCell ref="D150:D160"/>
     <mergeCell ref="D162:D170"/>
+    <mergeCell ref="C222:C228"/>
+    <mergeCell ref="C229:C230"/>
+    <mergeCell ref="C232:C236"/>
     <mergeCell ref="K252:K253"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="F222:F224"/>
@@ -14837,6 +14841,7 @@
     <mergeCell ref="L19:L24"/>
     <mergeCell ref="H25:H31"/>
     <mergeCell ref="I25:I31"/>
+    <mergeCell ref="G19:G24"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="L11:L17"/>
@@ -14857,6 +14862,8 @@
     <mergeCell ref="A11:A17"/>
     <mergeCell ref="B11:B17"/>
     <mergeCell ref="C11:C17"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="A32:A38"/>
   </mergeCells>
   <conditionalFormatting sqref="K196:K201 K203:K204 K241 K255:K264 L97:L103 L11 L39:L46 L48:L49 L51:L69 L71:L81 L83:L86 L88:L92 L94:L95 L105:L362 L18:L19 L25:L32">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
@@ -14916,39 +14923,39 @@
     <row r="2" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="3" spans="1:26" ht="8.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="25.5" customHeight="1">
-      <c r="B4" s="264" t="s">
+      <c r="B4" s="291" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="265"/>
-      <c r="D4" s="265"/>
-      <c r="E4" s="265"/>
-      <c r="F4" s="265"/>
-      <c r="G4" s="266"/>
+      <c r="C4" s="292"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="293"/>
       <c r="K4" s="156"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="B5" s="157" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="267" t="s">
+      <c r="C5" s="294" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="268"/>
-      <c r="E5" s="268"/>
-      <c r="F5" s="268"/>
-      <c r="G5" s="269"/>
+      <c r="D5" s="295"/>
+      <c r="E5" s="295"/>
+      <c r="F5" s="295"/>
+      <c r="G5" s="296"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="B6" s="158" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="267" t="s">
+      <c r="C6" s="294" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="268"/>
-      <c r="E6" s="268"/>
-      <c r="F6" s="268"/>
-      <c r="G6" s="269"/>
+      <c r="D6" s="295"/>
+      <c r="E6" s="295"/>
+      <c r="F6" s="295"/>
+      <c r="G6" s="296"/>
       <c r="I6" s="159" t="s">
         <v>26</v>
       </c>
@@ -14963,13 +14970,13 @@
       <c r="B7" s="157" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="267" t="s">
+      <c r="C7" s="294" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="268"/>
-      <c r="E7" s="268"/>
-      <c r="F7" s="268"/>
-      <c r="G7" s="269"/>
+      <c r="D7" s="295"/>
+      <c r="E7" s="295"/>
+      <c r="F7" s="295"/>
+      <c r="G7" s="296"/>
       <c r="I7" s="161">
         <f>C15</f>
         <v>4</v>
@@ -14984,13 +14991,13 @@
       <c r="B8" s="157" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="267" t="s">
+      <c r="C8" s="294" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="268"/>
-      <c r="E8" s="268"/>
-      <c r="F8" s="268"/>
-      <c r="G8" s="269"/>
+      <c r="D8" s="295"/>
+      <c r="E8" s="295"/>
+      <c r="F8" s="295"/>
+      <c r="G8" s="296"/>
       <c r="I8" s="161">
         <f>D15</f>
         <v>2</v>
@@ -15005,13 +15012,13 @@
       <c r="B9" s="157" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="267" t="s">
+      <c r="C9" s="294" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="268"/>
-      <c r="E9" s="268"/>
-      <c r="F9" s="268"/>
-      <c r="G9" s="269"/>
+      <c r="D9" s="295"/>
+      <c r="E9" s="295"/>
+      <c r="F9" s="295"/>
+      <c r="G9" s="296"/>
       <c r="I9" s="161">
         <f>E15</f>
         <v>0</v>
@@ -15035,13 +15042,13 @@
       <c r="B10" s="157" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="267" t="s">
+      <c r="C10" s="294" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="268"/>
-      <c r="E10" s="268"/>
-      <c r="F10" s="268"/>
-      <c r="G10" s="269"/>
+      <c r="D10" s="295"/>
+      <c r="E10" s="295"/>
+      <c r="F10" s="295"/>
+      <c r="G10" s="296"/>
       <c r="I10" s="161">
         <f>F15</f>
         <v>0</v>
@@ -15060,22 +15067,22 @@
       <c r="P10" s="78"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B11" s="278" t="s">
+      <c r="B11" s="305" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="279"/>
-      <c r="D11" s="279"/>
-      <c r="E11" s="279"/>
-      <c r="F11" s="279"/>
-      <c r="G11" s="280"/>
+      <c r="C11" s="306"/>
+      <c r="D11" s="306"/>
+      <c r="E11" s="306"/>
+      <c r="F11" s="306"/>
+      <c r="G11" s="307"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B12" s="275"/>
-      <c r="C12" s="276"/>
-      <c r="D12" s="276"/>
-      <c r="E12" s="276"/>
-      <c r="F12" s="276"/>
-      <c r="G12" s="277"/>
+      <c r="B12" s="302"/>
+      <c r="C12" s="303"/>
+      <c r="D12" s="303"/>
+      <c r="E12" s="303"/>
+      <c r="F12" s="303"/>
+      <c r="G12" s="304"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="B13" s="167" t="s">
@@ -15210,21 +15217,21 @@
       <c r="R17" s="170"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B18" s="281" t="s">
+      <c r="B18" s="308" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="282"/>
-      <c r="D18" s="282"/>
-      <c r="E18" s="282"/>
-      <c r="F18" s="282"/>
-      <c r="G18" s="246"/>
+      <c r="C18" s="309"/>
+      <c r="D18" s="309"/>
+      <c r="E18" s="309"/>
+      <c r="F18" s="309"/>
+      <c r="G18" s="258"/>
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B19" s="283" t="s">
+      <c r="B19" s="310" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="282"/>
-      <c r="D19" s="246"/>
+      <c r="C19" s="309"/>
+      <c r="D19" s="258"/>
       <c r="E19" s="185"/>
       <c r="F19" s="185" t="s">
         <v>47</v>
@@ -15234,11 +15241,11 @@
       </c>
     </row>
     <row r="20" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B20" s="284" t="s">
+      <c r="B20" s="311" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="282"/>
-      <c r="D20" s="246"/>
+      <c r="C20" s="309"/>
+      <c r="D20" s="258"/>
       <c r="E20" s="186"/>
       <c r="F20" s="186" t="s">
         <v>50</v>
@@ -15248,11 +15255,11 @@
       </c>
     </row>
     <row r="21" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B21" s="284" t="s">
+      <c r="B21" s="311" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="282"/>
-      <c r="D21" s="246"/>
+      <c r="C21" s="309"/>
+      <c r="D21" s="258"/>
       <c r="E21" s="186"/>
       <c r="F21" s="186" t="s">
         <v>50</v>
@@ -15263,306 +15270,306 @@
     </row>
     <row r="22" spans="2:18" ht="15.75" customHeight="1"/>
     <row r="23" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B23" s="289"/>
-      <c r="C23" s="285" t="s">
+      <c r="B23" s="316"/>
+      <c r="C23" s="312" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="288" t="s">
+      <c r="D23" s="315" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="271"/>
-      <c r="F23" s="271"/>
-      <c r="G23" s="272"/>
+      <c r="E23" s="298"/>
+      <c r="F23" s="298"/>
+      <c r="G23" s="299"/>
     </row>
     <row r="24" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B24" s="286"/>
-      <c r="C24" s="286"/>
-      <c r="D24" s="273"/>
-      <c r="E24" s="230"/>
-      <c r="F24" s="230"/>
-      <c r="G24" s="274"/>
+      <c r="B24" s="313"/>
+      <c r="C24" s="313"/>
+      <c r="D24" s="300"/>
+      <c r="E24" s="232"/>
+      <c r="F24" s="232"/>
+      <c r="G24" s="301"/>
     </row>
     <row r="25" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B25" s="286"/>
-      <c r="C25" s="286"/>
-      <c r="D25" s="273"/>
-      <c r="E25" s="230"/>
-      <c r="F25" s="230"/>
-      <c r="G25" s="274"/>
+      <c r="B25" s="313"/>
+      <c r="C25" s="313"/>
+      <c r="D25" s="300"/>
+      <c r="E25" s="232"/>
+      <c r="F25" s="232"/>
+      <c r="G25" s="301"/>
     </row>
     <row r="26" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B26" s="287"/>
-      <c r="C26" s="287"/>
-      <c r="D26" s="275"/>
-      <c r="E26" s="276"/>
-      <c r="F26" s="276"/>
-      <c r="G26" s="277"/>
+      <c r="B26" s="314"/>
+      <c r="C26" s="314"/>
+      <c r="D26" s="302"/>
+      <c r="E26" s="303"/>
+      <c r="F26" s="303"/>
+      <c r="G26" s="304"/>
     </row>
     <row r="27" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B27" s="290" t="s">
+      <c r="B27" s="317" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="291" t="s">
+      <c r="C27" s="318" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="270" t="s">
+      <c r="D27" s="297" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="271"/>
-      <c r="F27" s="271"/>
-      <c r="G27" s="272"/>
+      <c r="E27" s="298"/>
+      <c r="F27" s="298"/>
+      <c r="G27" s="299"/>
     </row>
     <row r="28" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B28" s="286"/>
-      <c r="C28" s="286"/>
-      <c r="D28" s="273"/>
-      <c r="E28" s="230"/>
-      <c r="F28" s="230"/>
-      <c r="G28" s="274"/>
+      <c r="B28" s="313"/>
+      <c r="C28" s="313"/>
+      <c r="D28" s="300"/>
+      <c r="E28" s="232"/>
+      <c r="F28" s="232"/>
+      <c r="G28" s="301"/>
     </row>
     <row r="29" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B29" s="286"/>
-      <c r="C29" s="286"/>
-      <c r="D29" s="273"/>
-      <c r="E29" s="230"/>
-      <c r="F29" s="230"/>
-      <c r="G29" s="274"/>
+      <c r="B29" s="313"/>
+      <c r="C29" s="313"/>
+      <c r="D29" s="300"/>
+      <c r="E29" s="232"/>
+      <c r="F29" s="232"/>
+      <c r="G29" s="301"/>
     </row>
     <row r="30" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B30" s="287"/>
-      <c r="C30" s="287"/>
-      <c r="D30" s="275"/>
-      <c r="E30" s="276"/>
-      <c r="F30" s="276"/>
-      <c r="G30" s="277"/>
+      <c r="B30" s="314"/>
+      <c r="C30" s="314"/>
+      <c r="D30" s="302"/>
+      <c r="E30" s="303"/>
+      <c r="F30" s="303"/>
+      <c r="G30" s="304"/>
     </row>
     <row r="31" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B31" s="290" t="s">
+      <c r="B31" s="317" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="291" t="s">
+      <c r="C31" s="318" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="270" t="s">
+      <c r="D31" s="297" t="s">
         <v>58</v>
       </c>
-      <c r="E31" s="271"/>
-      <c r="F31" s="271"/>
-      <c r="G31" s="272"/>
+      <c r="E31" s="298"/>
+      <c r="F31" s="298"/>
+      <c r="G31" s="299"/>
     </row>
     <row r="32" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B32" s="286"/>
-      <c r="C32" s="286"/>
-      <c r="D32" s="273"/>
-      <c r="E32" s="230"/>
-      <c r="F32" s="230"/>
-      <c r="G32" s="274"/>
+      <c r="B32" s="313"/>
+      <c r="C32" s="313"/>
+      <c r="D32" s="300"/>
+      <c r="E32" s="232"/>
+      <c r="F32" s="232"/>
+      <c r="G32" s="301"/>
     </row>
     <row r="33" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B33" s="286"/>
-      <c r="C33" s="286"/>
-      <c r="D33" s="273"/>
-      <c r="E33" s="230"/>
-      <c r="F33" s="230"/>
-      <c r="G33" s="274"/>
+      <c r="B33" s="313"/>
+      <c r="C33" s="313"/>
+      <c r="D33" s="300"/>
+      <c r="E33" s="232"/>
+      <c r="F33" s="232"/>
+      <c r="G33" s="301"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B34" s="287"/>
-      <c r="C34" s="287"/>
-      <c r="D34" s="275"/>
-      <c r="E34" s="276"/>
-      <c r="F34" s="276"/>
-      <c r="G34" s="277"/>
+      <c r="B34" s="314"/>
+      <c r="C34" s="314"/>
+      <c r="D34" s="302"/>
+      <c r="E34" s="303"/>
+      <c r="F34" s="303"/>
+      <c r="G34" s="304"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B35" s="290" t="s">
+      <c r="B35" s="317" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="291" t="s">
+      <c r="C35" s="318" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="270" t="s">
+      <c r="D35" s="297" t="s">
         <v>60</v>
       </c>
-      <c r="E35" s="271"/>
-      <c r="F35" s="271"/>
-      <c r="G35" s="272"/>
+      <c r="E35" s="298"/>
+      <c r="F35" s="298"/>
+      <c r="G35" s="299"/>
     </row>
     <row r="36" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B36" s="286"/>
-      <c r="C36" s="286"/>
-      <c r="D36" s="273"/>
-      <c r="E36" s="230"/>
-      <c r="F36" s="230"/>
-      <c r="G36" s="274"/>
+      <c r="B36" s="313"/>
+      <c r="C36" s="313"/>
+      <c r="D36" s="300"/>
+      <c r="E36" s="232"/>
+      <c r="F36" s="232"/>
+      <c r="G36" s="301"/>
     </row>
     <row r="37" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B37" s="286"/>
-      <c r="C37" s="286"/>
-      <c r="D37" s="273"/>
-      <c r="E37" s="230"/>
-      <c r="F37" s="230"/>
-      <c r="G37" s="274"/>
+      <c r="B37" s="313"/>
+      <c r="C37" s="313"/>
+      <c r="D37" s="300"/>
+      <c r="E37" s="232"/>
+      <c r="F37" s="232"/>
+      <c r="G37" s="301"/>
     </row>
     <row r="38" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B38" s="287"/>
-      <c r="C38" s="287"/>
-      <c r="D38" s="275"/>
-      <c r="E38" s="276"/>
-      <c r="F38" s="276"/>
-      <c r="G38" s="277"/>
+      <c r="B38" s="314"/>
+      <c r="C38" s="314"/>
+      <c r="D38" s="302"/>
+      <c r="E38" s="303"/>
+      <c r="F38" s="303"/>
+      <c r="G38" s="304"/>
     </row>
     <row r="39" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B39" s="290" t="s">
+      <c r="B39" s="317" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="291" t="s">
+      <c r="C39" s="318" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="270" t="s">
+      <c r="D39" s="297" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="271"/>
-      <c r="F39" s="271"/>
-      <c r="G39" s="272"/>
+      <c r="E39" s="298"/>
+      <c r="F39" s="298"/>
+      <c r="G39" s="299"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B40" s="286"/>
-      <c r="C40" s="286"/>
-      <c r="D40" s="273"/>
-      <c r="E40" s="230"/>
-      <c r="F40" s="230"/>
-      <c r="G40" s="274"/>
+      <c r="B40" s="313"/>
+      <c r="C40" s="313"/>
+      <c r="D40" s="300"/>
+      <c r="E40" s="232"/>
+      <c r="F40" s="232"/>
+      <c r="G40" s="301"/>
     </row>
     <row r="41" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B41" s="286"/>
-      <c r="C41" s="286"/>
-      <c r="D41" s="273"/>
-      <c r="E41" s="230"/>
-      <c r="F41" s="230"/>
-      <c r="G41" s="274"/>
+      <c r="B41" s="313"/>
+      <c r="C41" s="313"/>
+      <c r="D41" s="300"/>
+      <c r="E41" s="232"/>
+      <c r="F41" s="232"/>
+      <c r="G41" s="301"/>
     </row>
     <row r="42" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B42" s="287"/>
-      <c r="C42" s="287"/>
-      <c r="D42" s="275"/>
-      <c r="E42" s="276"/>
-      <c r="F42" s="276"/>
-      <c r="G42" s="277"/>
+      <c r="B42" s="314"/>
+      <c r="C42" s="314"/>
+      <c r="D42" s="302"/>
+      <c r="E42" s="303"/>
+      <c r="F42" s="303"/>
+      <c r="G42" s="304"/>
     </row>
     <row r="43" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B43" s="290" t="s">
+      <c r="B43" s="317" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="292" t="s">
+      <c r="C43" s="319" t="s">
         <v>63</v>
       </c>
-      <c r="D43" s="270" t="s">
+      <c r="D43" s="297" t="s">
         <v>64</v>
       </c>
-      <c r="E43" s="271"/>
-      <c r="F43" s="271"/>
-      <c r="G43" s="272"/>
+      <c r="E43" s="298"/>
+      <c r="F43" s="298"/>
+      <c r="G43" s="299"/>
     </row>
     <row r="44" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B44" s="286"/>
-      <c r="C44" s="286"/>
-      <c r="D44" s="273"/>
-      <c r="E44" s="230"/>
-      <c r="F44" s="230"/>
-      <c r="G44" s="274"/>
+      <c r="B44" s="313"/>
+      <c r="C44" s="313"/>
+      <c r="D44" s="300"/>
+      <c r="E44" s="232"/>
+      <c r="F44" s="232"/>
+      <c r="G44" s="301"/>
     </row>
     <row r="45" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B45" s="286"/>
-      <c r="C45" s="286"/>
-      <c r="D45" s="273"/>
-      <c r="E45" s="230"/>
-      <c r="F45" s="230"/>
-      <c r="G45" s="274"/>
+      <c r="B45" s="313"/>
+      <c r="C45" s="313"/>
+      <c r="D45" s="300"/>
+      <c r="E45" s="232"/>
+      <c r="F45" s="232"/>
+      <c r="G45" s="301"/>
     </row>
     <row r="46" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B46" s="287"/>
-      <c r="C46" s="287"/>
-      <c r="D46" s="275"/>
-      <c r="E46" s="276"/>
-      <c r="F46" s="276"/>
-      <c r="G46" s="277"/>
+      <c r="B46" s="314"/>
+      <c r="C46" s="314"/>
+      <c r="D46" s="302"/>
+      <c r="E46" s="303"/>
+      <c r="F46" s="303"/>
+      <c r="G46" s="304"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B47" s="290" t="s">
+      <c r="B47" s="317" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="292" t="s">
+      <c r="C47" s="319" t="s">
         <v>65</v>
       </c>
-      <c r="D47" s="270" t="s">
+      <c r="D47" s="297" t="s">
         <v>66</v>
       </c>
-      <c r="E47" s="271"/>
-      <c r="F47" s="271"/>
-      <c r="G47" s="272"/>
+      <c r="E47" s="298"/>
+      <c r="F47" s="298"/>
+      <c r="G47" s="299"/>
     </row>
     <row r="48" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B48" s="286"/>
-      <c r="C48" s="286"/>
-      <c r="D48" s="273"/>
-      <c r="E48" s="230"/>
-      <c r="F48" s="230"/>
-      <c r="G48" s="274"/>
+      <c r="B48" s="313"/>
+      <c r="C48" s="313"/>
+      <c r="D48" s="300"/>
+      <c r="E48" s="232"/>
+      <c r="F48" s="232"/>
+      <c r="G48" s="301"/>
     </row>
     <row r="49" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B49" s="286"/>
-      <c r="C49" s="286"/>
-      <c r="D49" s="273"/>
-      <c r="E49" s="230"/>
-      <c r="F49" s="230"/>
-      <c r="G49" s="274"/>
+      <c r="B49" s="313"/>
+      <c r="C49" s="313"/>
+      <c r="D49" s="300"/>
+      <c r="E49" s="232"/>
+      <c r="F49" s="232"/>
+      <c r="G49" s="301"/>
     </row>
     <row r="50" spans="2:7" ht="33.75" customHeight="1">
-      <c r="B50" s="287"/>
-      <c r="C50" s="287"/>
-      <c r="D50" s="275"/>
-      <c r="E50" s="276"/>
-      <c r="F50" s="276"/>
-      <c r="G50" s="277"/>
+      <c r="B50" s="314"/>
+      <c r="C50" s="314"/>
+      <c r="D50" s="302"/>
+      <c r="E50" s="303"/>
+      <c r="F50" s="303"/>
+      <c r="G50" s="304"/>
     </row>
     <row r="51" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B51" s="290" t="s">
+      <c r="B51" s="317" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="292" t="s">
+      <c r="C51" s="319" t="s">
         <v>67</v>
       </c>
-      <c r="D51" s="270" t="s">
+      <c r="D51" s="297" t="s">
         <v>68</v>
       </c>
-      <c r="E51" s="271"/>
-      <c r="F51" s="271"/>
-      <c r="G51" s="272"/>
+      <c r="E51" s="298"/>
+      <c r="F51" s="298"/>
+      <c r="G51" s="299"/>
     </row>
     <row r="52" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B52" s="286"/>
-      <c r="C52" s="286"/>
-      <c r="D52" s="273"/>
-      <c r="E52" s="230"/>
-      <c r="F52" s="230"/>
-      <c r="G52" s="274"/>
+      <c r="B52" s="313"/>
+      <c r="C52" s="313"/>
+      <c r="D52" s="300"/>
+      <c r="E52" s="232"/>
+      <c r="F52" s="232"/>
+      <c r="G52" s="301"/>
     </row>
     <row r="53" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B53" s="286"/>
-      <c r="C53" s="286"/>
-      <c r="D53" s="273"/>
-      <c r="E53" s="230"/>
-      <c r="F53" s="230"/>
-      <c r="G53" s="274"/>
+      <c r="B53" s="313"/>
+      <c r="C53" s="313"/>
+      <c r="D53" s="300"/>
+      <c r="E53" s="232"/>
+      <c r="F53" s="232"/>
+      <c r="G53" s="301"/>
     </row>
     <row r="54" spans="2:7" ht="39" customHeight="1">
-      <c r="B54" s="287"/>
-      <c r="C54" s="287"/>
-      <c r="D54" s="275"/>
-      <c r="E54" s="276"/>
-      <c r="F54" s="276"/>
-      <c r="G54" s="277"/>
+      <c r="B54" s="314"/>
+      <c r="C54" s="314"/>
+      <c r="D54" s="302"/>
+      <c r="E54" s="303"/>
+      <c r="F54" s="303"/>
+      <c r="G54" s="304"/>
     </row>
     <row r="55" spans="2:7" ht="15.75" customHeight="1"/>
     <row r="56" spans="2:7" ht="15.75" customHeight="1"/>
